--- a/AfDD_2025_Annex_Table_Tab21.xlsx
+++ b/AfDD_2025_Annex_Table_Tab21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96D20449-CD68-4B83-A7FF-E3D61A641F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBE181DC-EAA4-4A54-937C-27B75ADAC717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{DACB0F35-31C4-485A-8E86-1EC55E75EEC6}"/>
+    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{1B1F6350-BA7D-4DEC-A9AA-79E02ADBBA88}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab21" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="184">
   <si>
     <t>Table 21: Infrastructure financing</t>
   </si>
@@ -104,15 +104,6 @@
     <t>Net ODA disbursements to energy education/training (millions of USD), 2023</t>
   </si>
   <si>
-    <t>Average maturity on new external debt commitments (years), most recent measure 2015-24</t>
-  </si>
-  <si>
-    <t>Average maturity on new external debt commitments, official (years), most recent measure 2015-24</t>
-  </si>
-  <si>
-    <t>Percentage of inhabitants that live within 4G mobile technology coverage, most recent measure 2015-24</t>
-  </si>
-  <si>
     <t>AGO</t>
   </si>
   <si>
@@ -575,7 +566,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "PaÃ­ses Africanos de LÃ­ngua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado ComÃºn del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Source: International Telecommunication Union - ICT Indicators Online Database (retrieved 05/09/2025), GSMA Intelligence (data updated in june 2020), Gallup World Poll (accessed 15 December 2019).</t>
@@ -600,8 +591,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -971,7 +963,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1001,49 +993,49 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1052,61 +1044,61 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1118,13 +1110,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1133,58 +1125,58 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="14" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="14" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="14" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1195,6 +1187,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
@@ -1483,20 +1478,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F31E254-ABA7-4DA9-BF71-D4758AFC35D7}">
-  <dimension ref="A1:Y113"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00A8854D-69B2-4303-99AE-824AFA54C948}">
+  <dimension ref="A1:V113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="25" width="14.42578125" style="80" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="22" width="14.453125" style="81" customWidth="1"/>
+    <col min="23" max="23" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1520,11 +1515,8 @@
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-    </row>
-    <row r="2" spans="1:25" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:22" ht="74" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1588,37 +1580,28 @@
       <c r="U2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="V2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="7" t="s">
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="B3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>27</v>
-      </c>
       <c r="C3" s="11">
-        <v>0.102037</v>
+        <v>9.7211000000000006E-2</v>
       </c>
       <c r="D3" s="12">
-        <v>0.18312</v>
+        <v>0.174458</v>
       </c>
       <c r="E3" s="12">
-        <v>0.173099</v>
+        <v>0.164911</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G3" s="11">
         <v>112</v>
@@ -1630,13 +1613,13 @@
         <v>190</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K3" s="11">
         <v>17.347505999999999</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M3" s="12">
         <v>0.120477</v>
@@ -1648,7 +1631,7 @@
         <v>1.223384</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q3" s="12">
         <v>1.908064</v>
@@ -1657,45 +1640,36 @@
         <v>9.6889999999999997E-3</v>
       </c>
       <c r="S3" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T3" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U3" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="W3" s="12">
-        <v>19.044699999999999</v>
-      </c>
-      <c r="X3" s="12">
-        <v>18.730899999999998</v>
-      </c>
-      <c r="Y3" s="13">
-        <v>19.224399999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="V3" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C4" s="15">
-        <v>0.30909900000000001</v>
+        <v>0.30997599999999997</v>
       </c>
       <c r="D4" s="16">
-        <v>0.15970100000000001</v>
+        <v>0.16015399999999999</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F4" s="17">
-        <v>0.47395199999999998</v>
+        <v>0.47529700000000003</v>
       </c>
       <c r="G4" s="15">
         <v>60</v>
@@ -1704,7 +1678,7 @@
         <v>31</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J4" s="17">
         <v>92</v>
@@ -1713,19 +1687,19 @@
         <v>0.139157</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M4" s="16">
         <v>11.586736999999999</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O4" s="16">
         <v>1.143702</v>
       </c>
       <c r="P4" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q4" s="16">
         <v>8.5575999999999999E-2</v>
@@ -1734,75 +1708,66 @@
         <v>6.4707000000000001E-2</v>
       </c>
       <c r="S4" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="T4" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="U4" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="V4" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="T4" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="U4" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="V4" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="W4" s="16">
-        <v>15.1203</v>
-      </c>
-      <c r="X4" s="16">
-        <v>15.1203</v>
-      </c>
-      <c r="Y4" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>31</v>
-      </c>
       <c r="B5" s="18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C5" s="15">
-        <v>2.3671350000000002</v>
+        <v>2.3262870000000002</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G5" s="15">
         <v>115</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K5" s="15">
         <v>2.4462000000000001E-2</v>
       </c>
       <c r="L5" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M5" s="19">
         <v>3.9595180000000001</v>
       </c>
       <c r="N5" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O5" s="19">
         <v>0.16565099999999999</v>
       </c>
       <c r="P5" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="19">
         <v>1.873254</v>
@@ -1811,57 +1776,48 @@
         <v>1.740901</v>
       </c>
       <c r="S5" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T5" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U5" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="V5" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="W5" s="19">
-        <v>24.273599999999998</v>
-      </c>
-      <c r="X5" s="19">
-        <v>24.273599999999998</v>
-      </c>
-      <c r="Y5" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="V5" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C6" s="15">
-        <v>0.45005800000000001</v>
+        <v>0.43341099999999999</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G6" s="15">
         <v>9.9600000000000009</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J6" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K6" s="15">
         <v>10.790540999999999</v>
@@ -1873,13 +1829,13 @@
         <v>1.100868</v>
       </c>
       <c r="N6" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O6" s="19">
         <v>4.2195280000000004</v>
       </c>
       <c r="P6" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q6" s="19">
         <v>6.2398990000000003</v>
@@ -1888,57 +1844,48 @@
         <v>2.857748</v>
       </c>
       <c r="S6" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T6" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U6" s="19">
         <v>2.8008000000000002</v>
       </c>
-      <c r="V6" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="W6" s="19">
-        <v>29.875</v>
-      </c>
-      <c r="X6" s="19">
-        <v>29.875</v>
-      </c>
-      <c r="Y6" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V6" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C7" s="15">
-        <v>0.20536799999999999</v>
+        <v>0.233959</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G7" s="15">
         <v>27.6</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K7" s="15">
         <v>70.183070999999998</v>
@@ -1950,13 +1897,13 @@
         <v>82.836967999999999</v>
       </c>
       <c r="N7" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O7" s="19">
         <v>23.13072</v>
       </c>
       <c r="P7" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q7" s="19">
         <v>59.678269999999998</v>
@@ -1968,42 +1915,33 @@
         <v>0.20672099999999999</v>
       </c>
       <c r="T7" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U7" s="19">
         <v>21.751940999999999</v>
       </c>
-      <c r="V7" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="W7" s="19">
-        <v>37.858400000000003</v>
-      </c>
-      <c r="X7" s="19">
-        <v>37.858400000000003</v>
-      </c>
-      <c r="Y7" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V7" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C8" s="15">
-        <v>0.14316899999999999</v>
+        <v>0.13189500000000001</v>
       </c>
       <c r="D8" s="19">
-        <v>1.9471020000000001</v>
+        <v>1.793774</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G8" s="15">
         <v>30</v>
@@ -2012,10 +1950,10 @@
         <v>408</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K8" s="15">
         <v>135.690178</v>
@@ -2027,13 +1965,13 @@
         <v>159.48854900000001</v>
       </c>
       <c r="N8" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O8" s="19">
         <v>143.55185800000001</v>
       </c>
       <c r="P8" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q8" s="19">
         <v>278.41414300000002</v>
@@ -2045,42 +1983,33 @@
         <v>1.7553479999999999</v>
       </c>
       <c r="T8" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U8" s="19">
         <v>128.35441299999999</v>
       </c>
-      <c r="V8" s="19">
+      <c r="V8" s="20">
         <v>6.5189999999999996E-3</v>
       </c>
-      <c r="W8" s="19">
-        <v>33.0274</v>
-      </c>
-      <c r="X8" s="19">
-        <v>33.0274</v>
-      </c>
-      <c r="Y8" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C9" s="21">
-        <v>0.62085999999999997</v>
+        <v>0.57591499999999995</v>
       </c>
       <c r="D9" s="19">
-        <v>0.24995700000000001</v>
+        <v>0.23186200000000001</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G9" s="21">
         <v>77</v>
@@ -2089,28 +2018,28 @@
         <v>31</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K9" s="21">
         <v>5.5400460000000002</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M9" s="19">
         <v>15.627943</v>
       </c>
       <c r="N9" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O9" s="19">
         <v>0.319274</v>
       </c>
       <c r="P9" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q9" s="19">
         <v>6.2699059999999998</v>
@@ -2119,45 +2048,36 @@
         <v>4.5874899999999998</v>
       </c>
       <c r="S9" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T9" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U9" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="V9" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="W9" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="X9" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y9" s="20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="V9" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C10" s="21">
-        <v>0.265428</v>
+        <v>0.25187300000000001</v>
       </c>
       <c r="D10" s="19">
-        <v>6.2534000000000006E-2</v>
+        <v>5.9339999999999997E-2</v>
       </c>
       <c r="E10" s="19">
-        <v>3.5469999999999998E-3</v>
+        <v>3.3660000000000001E-3</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G10" s="21">
         <v>1010.2</v>
@@ -2169,7 +2089,7 @@
         <v>13.5</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K10" s="21">
         <v>6.7797159999999996</v>
@@ -2187,7 +2107,7 @@
         <v>3.466418</v>
       </c>
       <c r="P10" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q10" s="19">
         <v>590.60423000000003</v>
@@ -2204,37 +2124,28 @@
       <c r="U10" s="19">
         <v>70.145985999999994</v>
       </c>
-      <c r="V10" s="19">
+      <c r="V10" s="20">
         <v>0.110323</v>
       </c>
-      <c r="W10" s="19">
-        <v>11.581799999999999</v>
-      </c>
-      <c r="X10" s="19">
-        <v>15.4564</v>
-      </c>
-      <c r="Y10" s="20">
-        <v>8.4212000000000007</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C11" s="15">
-        <v>2.7196000000000001E-2</v>
+        <v>2.8489E-2</v>
       </c>
       <c r="D11" s="16">
-        <v>0.112409</v>
+        <v>0.117755</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G11" s="15">
         <v>7.5</v>
@@ -2243,10 +2154,10 @@
         <v>31</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K11" s="15">
         <v>31.264614000000002</v>
@@ -2258,7 +2169,7 @@
         <v>32.795208000000002</v>
       </c>
       <c r="N11" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O11" s="16">
         <v>0.30099900000000002</v>
@@ -2273,57 +2184,48 @@
         <v>29.905104000000001</v>
       </c>
       <c r="S11" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T11" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U11" s="16">
         <v>30.388279000000001</v>
       </c>
-      <c r="V11" s="16">
+      <c r="V11" s="17">
         <v>0.62884600000000002</v>
       </c>
-      <c r="W11" s="16">
-        <v>16.0365</v>
-      </c>
-      <c r="X11" s="16">
-        <v>16.0365</v>
-      </c>
-      <c r="Y11" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C12" s="23">
-        <v>0.122353</v>
+        <v>8.7480000000000002E-2</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G12" s="23">
         <v>43</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J12" s="25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K12" s="23">
         <v>6.2810829999999997</v>
@@ -2335,7 +2237,7 @@
         <v>1.0295019999999999</v>
       </c>
       <c r="N12" s="24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O12" s="24">
         <v>0.46271000000000001</v>
@@ -2350,43 +2252,34 @@
         <v>2.704653</v>
       </c>
       <c r="S12" s="24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T12" s="24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U12" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="V12" s="24">
+        <v>25</v>
+      </c>
+      <c r="V12" s="25">
         <v>7.5529999999999998E-3</v>
       </c>
-      <c r="W12" s="24">
-        <v>9.2612000000000005</v>
-      </c>
-      <c r="X12" s="24">
-        <v>9.2612000000000005</v>
-      </c>
-      <c r="Y12" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="26"/>
       <c r="B13" s="27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C13" s="28">
-        <v>0.23325899999999999</v>
+        <v>0.217582</v>
       </c>
       <c r="D13" s="29">
-        <v>0.16936399999999999</v>
+        <v>0.160746</v>
       </c>
       <c r="E13" s="29">
-        <v>4.9541000000000002E-2</v>
+        <v>4.8482999999999998E-2</v>
       </c>
       <c r="F13" s="30">
-        <v>0.47395199999999998</v>
+        <v>0.47529700000000003</v>
       </c>
       <c r="G13" s="28">
         <v>1492.26</v>
@@ -2433,67 +2326,58 @@
       <c r="U13" s="29">
         <v>253.441419</v>
       </c>
-      <c r="V13" s="29">
+      <c r="V13" s="30">
         <v>0.75324100000000005</v>
       </c>
-      <c r="W13" s="29">
-        <v>21.786543999999999</v>
-      </c>
-      <c r="X13" s="29">
-        <v>22.182189000000001</v>
-      </c>
-      <c r="Y13" s="30">
-        <v>3.071733</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C14" s="21">
-        <v>2.3549E-2</v>
+        <v>2.0716999999999999E-2</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G14" s="21">
         <v>1</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J14" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K14" s="21">
         <v>5.0087669999999997</v>
       </c>
       <c r="L14" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M14" s="19">
         <v>24.344497</v>
       </c>
       <c r="N14" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O14" s="19">
         <v>3.0859169999999998</v>
       </c>
       <c r="P14" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q14" s="19">
         <v>84.227037999999993</v>
@@ -2505,42 +2389,33 @@
         <v>4.4619200000000001</v>
       </c>
       <c r="T14" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U14" s="19">
         <v>1.9786570000000001</v>
       </c>
-      <c r="V14" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="W14" s="19">
-        <v>23.765799999999999</v>
-      </c>
-      <c r="X14" s="19">
-        <v>23.765799999999999</v>
-      </c>
-      <c r="Y14" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V14" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C15" s="21">
-        <v>0.20291100000000001</v>
+        <v>0.18384300000000001</v>
       </c>
       <c r="D15" s="19">
-        <v>0.27595799999999998</v>
+        <v>0.250027</v>
       </c>
       <c r="E15" s="19">
-        <v>0.106528</v>
+        <v>9.6518000000000007E-2</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G15" s="21">
         <v>100</v>
@@ -2552,7 +2427,7 @@
         <v>52.5</v>
       </c>
       <c r="J15" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K15" s="21">
         <v>41.722693999999997</v>
@@ -2570,7 +2445,7 @@
         <v>3.3509600000000002</v>
       </c>
       <c r="P15" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q15" s="19">
         <v>41.997636</v>
@@ -2582,72 +2457,63 @@
         <v>1.1624000000000001E-2</v>
       </c>
       <c r="T15" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U15" s="19">
         <v>13.123715000000001</v>
       </c>
-      <c r="V15" s="19">
+      <c r="V15" s="20">
         <v>8.8887999999999995E-2</v>
       </c>
-      <c r="W15" s="19">
-        <v>25.113700000000001</v>
-      </c>
-      <c r="X15" s="19">
-        <v>26.026199999999999</v>
-      </c>
-      <c r="Y15" s="20">
-        <v>17.737400000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J16" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K16" s="21">
         <v>5.2501559999999996</v>
       </c>
       <c r="L16" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M16" s="19">
         <v>19.304358000000001</v>
       </c>
       <c r="N16" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O16" s="19">
         <v>5.5071570000000003</v>
       </c>
       <c r="P16" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="19">
         <v>23.010978000000001</v>
@@ -2656,57 +2522,48 @@
         <v>16.930063000000001</v>
       </c>
       <c r="S16" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T16" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U16" s="19">
         <v>5.5325499999999996</v>
       </c>
-      <c r="V16" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="W16" s="19">
-        <v>0</v>
-      </c>
-      <c r="X16" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V16" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C17" s="32">
-        <v>0.54516900000000001</v>
+        <v>0.50414599999999998</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F17" s="34" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G17" s="32">
         <v>100</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I17" s="33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J17" s="34" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K17" s="32">
         <v>19.691231999999999</v>
@@ -2718,13 +2575,13 @@
         <v>14.749152</v>
       </c>
       <c r="N17" s="33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O17" s="33">
         <v>5.1775719999999996</v>
       </c>
       <c r="P17" s="33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q17" s="33">
         <v>10.113670000000001</v>
@@ -2733,122 +2590,104 @@
         <v>3.539698</v>
       </c>
       <c r="S17" s="33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T17" s="33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U17" s="33">
         <v>0.11713</v>
       </c>
-      <c r="V17" s="33">
+      <c r="V17" s="34">
         <v>2.4653000000000001E-2</v>
       </c>
-      <c r="W17" s="33">
-        <v>17.833300000000001</v>
-      </c>
-      <c r="X17" s="33">
-        <v>17.833300000000001</v>
-      </c>
-      <c r="Y17" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E18" s="33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G18" s="32" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I18" s="33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J18" s="34" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K18" s="32">
         <v>19.510736999999999</v>
       </c>
       <c r="L18" s="33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M18" s="33">
         <v>1.1313960000000001</v>
       </c>
       <c r="N18" s="33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O18" s="33">
         <v>0.79542299999999999</v>
       </c>
       <c r="P18" s="33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q18" s="33">
         <v>3.9767749999999999</v>
       </c>
       <c r="R18" s="33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="S18" s="33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T18" s="33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U18" s="33">
         <v>3.260554</v>
       </c>
-      <c r="V18" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="W18" s="33">
-        <v>28.1051</v>
-      </c>
-      <c r="X18" s="33">
-        <v>28.1051</v>
-      </c>
-      <c r="Y18" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V18" s="34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C19" s="15">
-        <v>7.7636999999999998E-2</v>
+        <v>6.7115999999999995E-2</v>
       </c>
       <c r="D19" s="16">
-        <v>0.63507400000000003</v>
+        <v>0.54901</v>
       </c>
       <c r="E19" s="16">
-        <v>1.5527489999999999</v>
+        <v>1.342322</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G19" s="15">
         <v>50</v>
@@ -2860,7 +2699,7 @@
         <v>1000</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K19" s="15">
         <v>85.678961000000001</v>
@@ -2878,7 +2717,7 @@
         <v>72.308496000000005</v>
       </c>
       <c r="P19" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q19" s="16">
         <v>36.908800999999997</v>
@@ -2887,128 +2726,110 @@
         <v>14.294281</v>
       </c>
       <c r="S19" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T19" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U19" s="16">
         <v>14.684811</v>
       </c>
-      <c r="V19" s="16">
+      <c r="V19" s="17">
         <v>6.5189999999999996E-3</v>
       </c>
-      <c r="W19" s="16">
-        <v>47.185899999999997</v>
-      </c>
-      <c r="X19" s="16">
-        <v>47.789499999999997</v>
-      </c>
-      <c r="Y19" s="17">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="N20" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="O20" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="P20" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q20" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="R20" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="S20" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="T20" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="U20" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="V20" s="34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A21" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="I20" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="J20" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="K20" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="L20" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="M20" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="N20" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="O20" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="P20" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q20" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="R20" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="S20" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="T20" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="U20" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="V20" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="W20" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="X20" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y20" s="34" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="31" t="s">
-        <v>63</v>
-      </c>
       <c r="C21" s="32">
-        <v>0.149561</v>
+        <v>0.143539</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E21" s="33">
-        <v>1.1069020000000001</v>
+        <v>1.0623309999999999</v>
       </c>
       <c r="F21" s="34">
-        <v>0.91322000000000003</v>
+        <v>0.876448</v>
       </c>
       <c r="G21" s="32">
         <v>30</v>
       </c>
       <c r="H21" s="33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I21" s="33">
         <v>222.03</v>
@@ -3020,96 +2841,87 @@
         <v>0.730904</v>
       </c>
       <c r="L21" s="33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M21" s="33">
         <v>5.0627240000000002</v>
       </c>
       <c r="N21" s="33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O21" s="33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P21" s="33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q21" s="33">
         <v>2.1649999999999998E-3</v>
       </c>
       <c r="R21" s="33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="S21" s="33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T21" s="33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U21" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="V21" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="W21" s="33">
-        <v>14.3103</v>
-      </c>
-      <c r="X21" s="33">
-        <v>16.25</v>
-      </c>
-      <c r="Y21" s="34">
-        <v>14.1134</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="V21" s="34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C22" s="36">
-        <v>4.3842879999999997</v>
+        <v>3.6216560000000002</v>
       </c>
       <c r="D22" s="37" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G22" s="36">
         <v>30</v>
       </c>
       <c r="H22" s="37" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I22" s="37" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J22" s="38" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K22" s="36">
         <v>4.8290490000000004</v>
       </c>
       <c r="L22" s="37" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M22" s="37">
         <v>9.4319360000000003</v>
       </c>
       <c r="N22" s="37" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O22" s="37">
         <v>1.313723</v>
       </c>
       <c r="P22" s="37" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q22" s="37">
         <v>18.411047</v>
@@ -3118,43 +2930,34 @@
         <v>13.306285000000001</v>
       </c>
       <c r="S22" s="37" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T22" s="37" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U22" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="V22" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="W22" s="37">
-        <v>7.9928999999999997</v>
-      </c>
-      <c r="X22" s="37">
-        <v>7.9928999999999997</v>
-      </c>
-      <c r="Y22" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="V22" s="38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="26"/>
       <c r="B23" s="27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C23" s="28">
-        <v>0.196877</v>
+        <v>0.17558499999999999</v>
       </c>
       <c r="D23" s="29">
-        <v>0.46545199999999998</v>
+        <v>0.41303000000000001</v>
       </c>
       <c r="E23" s="29">
-        <v>0.90217899999999995</v>
+        <v>0.81370799999999999</v>
       </c>
       <c r="F23" s="30">
-        <v>0.91322000000000003</v>
+        <v>0.876448</v>
       </c>
       <c r="G23" s="28">
         <v>311</v>
@@ -3184,7 +2987,7 @@
         <v>91.539248000000001</v>
       </c>
       <c r="P23" s="29" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q23" s="29">
         <v>218.64811</v>
@@ -3196,72 +2999,63 @@
         <v>4.4735440000000004</v>
       </c>
       <c r="T23" s="29" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U23" s="29">
         <v>38.697417000000002</v>
       </c>
-      <c r="V23" s="29">
+      <c r="V23" s="30">
         <v>0.12006</v>
       </c>
-      <c r="W23" s="29">
-        <v>20.538374999999998</v>
-      </c>
-      <c r="X23" s="29">
-        <v>20.97035</v>
-      </c>
-      <c r="Y23" s="30">
-        <v>4.6688499999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D24" s="41">
-        <v>5.5410349999999999</v>
+        <v>5.1329770000000003</v>
       </c>
       <c r="E24" s="41" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F24" s="42" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G24" s="40" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H24" s="41">
         <v>74</v>
       </c>
       <c r="I24" s="41" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J24" s="42" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K24" s="40">
         <v>4.0772370000000002</v>
       </c>
       <c r="L24" s="41" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M24" s="41">
         <v>20.466621</v>
       </c>
       <c r="N24" s="41" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O24" s="41">
         <v>2.623E-2</v>
       </c>
       <c r="P24" s="41" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q24" s="41">
         <v>7.8434119999999998</v>
@@ -3270,45 +3064,36 @@
         <v>5.6703409999999996</v>
       </c>
       <c r="S24" s="41" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T24" s="41" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U24" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="V24" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="W24" s="41">
-        <v>15.3835</v>
-      </c>
-      <c r="X24" s="41">
-        <v>15.3835</v>
-      </c>
-      <c r="Y24" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="V24" s="42" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C25" s="21">
-        <v>3.1528019999999999</v>
+        <v>2.8780420000000002</v>
       </c>
       <c r="D25" s="19">
-        <v>5.2844540000000002</v>
+        <v>4.8239239999999999</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G25" s="21">
         <v>123.5</v>
@@ -3317,28 +3102,28 @@
         <v>207</v>
       </c>
       <c r="I25" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J25" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K25" s="21">
         <v>21.974432</v>
       </c>
       <c r="L25" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M25" s="19">
         <v>40.153596999999998</v>
       </c>
       <c r="N25" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O25" s="19">
         <v>2.1287099999999999</v>
       </c>
       <c r="P25" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q25" s="19">
         <v>6.5431619999999997</v>
@@ -3350,72 +3135,63 @@
         <v>9.7839999999999996E-2</v>
       </c>
       <c r="T25" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U25" s="19">
         <v>5.1480499999999996</v>
       </c>
-      <c r="V25" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="W25" s="19">
-        <v>14.696899999999999</v>
-      </c>
-      <c r="X25" s="19">
-        <v>14.696899999999999</v>
-      </c>
-      <c r="Y25" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V25" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I26" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J26" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K26" s="21">
         <v>0.44693500000000003</v>
       </c>
       <c r="L26" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M26" s="19">
         <v>6.9999999999999999E-6</v>
       </c>
       <c r="N26" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O26" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P26" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q26" s="19">
         <v>0.58488799999999996</v>
@@ -3424,45 +3200,36 @@
         <v>0.58091999999999999</v>
       </c>
       <c r="S26" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T26" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U26" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="V26" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="W26" s="19">
-        <v>0</v>
-      </c>
-      <c r="X26" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="V26" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C27" s="21">
-        <v>0.169628</v>
+        <v>0.190748</v>
       </c>
       <c r="D27" s="19">
-        <v>0.26752399999999998</v>
+        <v>0.30083199999999999</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G27" s="21">
         <v>271</v>
@@ -3471,10 +3238,10 @@
         <v>427.4</v>
       </c>
       <c r="I27" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J27" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K27" s="21">
         <v>287.00816700000001</v>
@@ -3492,7 +3259,7 @@
         <v>21.653403000000001</v>
       </c>
       <c r="P27" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q27" s="19">
         <v>119.301554</v>
@@ -3501,45 +3268,36 @@
         <v>55.452447999999997</v>
       </c>
       <c r="S27" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T27" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U27" s="19">
         <v>45.330452000000001</v>
       </c>
-      <c r="V27" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="W27" s="19">
-        <v>15.1823</v>
-      </c>
-      <c r="X27" s="19">
-        <v>15.868</v>
-      </c>
-      <c r="Y27" s="20">
-        <v>11.890499999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V27" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C28" s="21">
-        <v>0.14308399999999999</v>
+        <v>0.13042000000000001</v>
       </c>
       <c r="D28" s="19">
-        <v>0.19034999999999999</v>
+        <v>0.17350299999999999</v>
       </c>
       <c r="E28" s="19">
-        <v>0.120279</v>
+        <v>0.10963299999999999</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G28" s="21">
         <v>155.6</v>
@@ -3551,7 +3309,7 @@
         <v>130.80000000000001</v>
       </c>
       <c r="J28" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K28" s="21">
         <v>133.38368800000001</v>
@@ -3578,57 +3336,48 @@
         <v>63.030199000000003</v>
       </c>
       <c r="S28" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T28" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U28" s="19">
         <v>38.139373999999997</v>
       </c>
-      <c r="V28" s="19">
+      <c r="V28" s="20">
         <v>2.7418000000000001E-2</v>
       </c>
-      <c r="W28" s="19">
-        <v>16.078600000000002</v>
-      </c>
-      <c r="X28" s="19">
-        <v>16.709599999999998</v>
-      </c>
-      <c r="Y28" s="20">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C29" s="21">
-        <v>0.30245899999999998</v>
+        <v>0.27553699999999998</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E29" s="19">
-        <v>1.5444290000000001</v>
+        <v>1.406963</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G29" s="21">
         <v>48</v>
       </c>
       <c r="H29" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I29" s="19">
         <v>245.1</v>
       </c>
       <c r="J29" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K29" s="21">
         <v>22.159417000000001</v>
@@ -3640,13 +3389,13 @@
         <v>247.15581900000001</v>
       </c>
       <c r="N29" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O29" s="19">
         <v>15.273987</v>
       </c>
       <c r="P29" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q29" s="19">
         <v>72.868817000000007</v>
@@ -3658,72 +3407,63 @@
         <v>9.3439999999999999E-3</v>
       </c>
       <c r="T29" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U29" s="19">
         <v>48.485469000000002</v>
       </c>
-      <c r="V29" s="19">
+      <c r="V29" s="20">
         <v>5.2775080000000001</v>
       </c>
-      <c r="W29" s="19">
-        <v>32.993699999999997</v>
-      </c>
-      <c r="X29" s="19">
-        <v>32.993699999999997</v>
-      </c>
-      <c r="Y29" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C30" s="21">
-        <v>0.16431200000000001</v>
+        <v>0.154615</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G30" s="21">
         <v>23.17</v>
       </c>
       <c r="H30" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I30" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J30" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K30" s="21">
         <v>65.825795999999997</v>
       </c>
       <c r="L30" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M30" s="19">
         <v>10.563321999999999</v>
       </c>
       <c r="N30" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O30" s="19">
         <v>5.947E-3</v>
       </c>
       <c r="P30" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q30" s="19">
         <v>1.2404550000000001</v>
@@ -3732,45 +3472,36 @@
         <v>1.0536350000000001</v>
       </c>
       <c r="S30" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T30" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U30" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="V30" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="W30" s="19">
-        <v>8.5204000000000004</v>
-      </c>
-      <c r="X30" s="19">
-        <v>19.677399999999999</v>
-      </c>
-      <c r="Y30" s="20">
-        <v>1.8113999999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="V30" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C31" s="21">
-        <v>0.279113</v>
+        <v>0.28067199999999998</v>
       </c>
       <c r="D31" s="19">
-        <v>1.444412</v>
+        <v>1.4524790000000001</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F31" s="20">
-        <v>0.41866999999999999</v>
+        <v>0.42100900000000002</v>
       </c>
       <c r="G31" s="21">
         <v>40</v>
@@ -3779,7 +3510,7 @@
         <v>207</v>
       </c>
       <c r="I31" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J31" s="20">
         <v>60</v>
@@ -3809,122 +3540,104 @@
         <v>35.331761</v>
       </c>
       <c r="S31" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T31" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U31" s="19">
         <v>56.196353000000002</v>
       </c>
-      <c r="V31" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="W31" s="19">
-        <v>33.046599999999998</v>
-      </c>
-      <c r="X31" s="19">
-        <v>35.155099999999997</v>
-      </c>
-      <c r="Y31" s="20">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V31" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J32" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="K32" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="L32" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M32" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="N32" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="O32" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="P32" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q32" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="R32" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="S32" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="T32" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="U32" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="V32" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A33" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B32" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G32" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="H32" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="I32" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="J32" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K32" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="L32" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="M32" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="N32" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="O32" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="P32" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q32" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="R32" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="S32" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="T32" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="U32" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="V32" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="W32" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="X32" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y32" s="20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>86</v>
-      </c>
       <c r="C33" s="21">
-        <v>5.1693000000000003E-2</v>
+        <v>4.6623999999999999E-2</v>
       </c>
       <c r="D33" s="19">
-        <v>0.255276</v>
+        <v>0.230244</v>
       </c>
       <c r="E33" s="19">
-        <v>0.45584999999999998</v>
+        <v>0.41115099999999999</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G33" s="21">
         <v>5.67</v>
@@ -3936,19 +3649,19 @@
         <v>50</v>
       </c>
       <c r="J33" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K33" s="21">
         <v>41.579360000000001</v>
       </c>
       <c r="L33" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M33" s="19">
         <v>15.59137</v>
       </c>
       <c r="N33" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O33" s="19">
         <v>3.1949939999999999</v>
@@ -3963,75 +3676,66 @@
         <v>19.010525999999999</v>
       </c>
       <c r="S33" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T33" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U33" s="19">
         <v>1.8466</v>
       </c>
-      <c r="V33" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="W33" s="19">
-        <v>0</v>
-      </c>
-      <c r="X33" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V33" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E34" s="33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F34" s="34" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G34" s="32" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H34" s="33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I34" s="33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J34" s="34" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K34" s="32">
         <v>46.010071000000003</v>
       </c>
       <c r="L34" s="33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M34" s="33">
         <v>12.827332999999999</v>
       </c>
       <c r="N34" s="33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O34" s="33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P34" s="33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q34" s="33">
         <v>0.229466</v>
@@ -4040,75 +3744,66 @@
         <v>0.102285</v>
       </c>
       <c r="S34" s="33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T34" s="33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U34" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="V34" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="W34" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="X34" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y34" s="34" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="V34" s="34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E35" s="19">
-        <v>1.633502</v>
+        <v>2.0709170000000001</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G35" s="21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H35" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I35" s="19">
         <v>604.37</v>
       </c>
       <c r="J35" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K35" s="21">
         <v>26.148599000000001</v>
       </c>
       <c r="L35" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M35" s="19">
         <v>1.2999999999999999E-5</v>
       </c>
       <c r="N35" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O35" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P35" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q35" s="19">
         <v>0.34940300000000002</v>
@@ -4117,45 +3812,36 @@
         <v>0.29416100000000001</v>
       </c>
       <c r="S35" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T35" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U35" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="V35" s="19">
+        <v>25</v>
+      </c>
+      <c r="V35" s="20">
         <v>5.5241999999999999E-2</v>
       </c>
-      <c r="W35" s="19">
-        <v>0</v>
-      </c>
-      <c r="X35" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C36" s="21">
-        <v>3.7908999999999998E-2</v>
+        <v>3.7862E-2</v>
       </c>
       <c r="D36" s="19">
-        <v>0.47638599999999998</v>
+        <v>0.475796</v>
       </c>
       <c r="E36" s="19">
-        <v>0.31590600000000002</v>
+        <v>0.31551400000000002</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G36" s="21">
         <v>30</v>
@@ -4167,7 +3853,7 @@
         <v>250</v>
       </c>
       <c r="J36" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K36" s="21">
         <v>258.30676</v>
@@ -4194,45 +3880,36 @@
         <v>96.675803999999999</v>
       </c>
       <c r="S36" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T36" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U36" s="19">
         <v>283.44055100000003</v>
       </c>
-      <c r="V36" s="19">
+      <c r="V36" s="20">
         <v>3.8958E-2</v>
       </c>
-      <c r="W36" s="19">
-        <v>21.367699999999999</v>
-      </c>
-      <c r="X36" s="19">
-        <v>34.167499999999997</v>
-      </c>
-      <c r="Y36" s="20">
-        <v>8.4384999999999994</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C37" s="23">
-        <v>3.6584999999999999E-2</v>
+        <v>3.3789E-2</v>
       </c>
       <c r="D37" s="24">
-        <v>0.72592299999999998</v>
+        <v>0.67044000000000004</v>
       </c>
       <c r="E37" s="24">
-        <v>0.44190800000000002</v>
+        <v>0.40813199999999999</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G37" s="23">
         <v>19</v>
@@ -4244,7 +3921,7 @@
         <v>229.5</v>
       </c>
       <c r="J37" s="25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K37" s="23">
         <v>116.441439</v>
@@ -4274,40 +3951,31 @@
         <v>0.39400000000000002</v>
       </c>
       <c r="T37" s="24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U37" s="24">
         <v>50.721274999999999</v>
       </c>
-      <c r="V37" s="24">
+      <c r="V37" s="25">
         <v>0.14915999999999999</v>
       </c>
-      <c r="W37" s="24">
-        <v>27.1492</v>
-      </c>
-      <c r="X37" s="24">
-        <v>35.0608</v>
-      </c>
-      <c r="Y37" s="25">
-        <v>9.4999000000000002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="26"/>
       <c r="B38" s="27" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C38" s="28">
         <v>0.147843</v>
       </c>
       <c r="D38" s="29">
-        <v>0.438</v>
+        <v>0.433363</v>
       </c>
       <c r="E38" s="29">
-        <v>0.53670899999999999</v>
+        <v>0.52037900000000004</v>
       </c>
       <c r="F38" s="30">
-        <v>0.41866999999999999</v>
+        <v>0.42100900000000002</v>
       </c>
       <c r="G38" s="28">
         <v>715.94</v>
@@ -4349,60 +4017,51 @@
         <v>0.50118399999999996</v>
       </c>
       <c r="T38" s="29" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U38" s="29">
         <v>529.30812400000002</v>
       </c>
-      <c r="V38" s="29">
+      <c r="V38" s="30">
         <v>5.5482860000000001</v>
       </c>
-      <c r="W38" s="29">
-        <v>15.368242</v>
-      </c>
-      <c r="X38" s="29">
-        <v>18.309374999999999</v>
-      </c>
-      <c r="Y38" s="30">
-        <v>4.761692</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C39" s="44" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D39" s="45">
-        <v>0.14480899999999999</v>
+        <v>0.133321</v>
       </c>
       <c r="E39" s="45" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F39" s="46" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G39" s="44" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H39" s="45">
         <v>358.82</v>
       </c>
       <c r="I39" s="45" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J39" s="46" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K39" s="44">
         <v>0.34854000000000002</v>
       </c>
       <c r="L39" s="45" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M39" s="45">
         <v>3.4522999999999998E-2</v>
@@ -4414,7 +4073,7 @@
         <v>1.7419E-2</v>
       </c>
       <c r="P39" s="45" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q39" s="45">
         <v>7.5503830000000001</v>
@@ -4423,45 +4082,36 @@
         <v>1.150549</v>
       </c>
       <c r="S39" s="45" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T39" s="45" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U39" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="V39" s="45">
+        <v>25</v>
+      </c>
+      <c r="V39" s="46">
         <v>0.57011400000000001</v>
       </c>
-      <c r="W39" s="45">
-        <v>0</v>
-      </c>
-      <c r="X39" s="45">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C40" s="21">
-        <v>0.22075700000000001</v>
+        <v>0.226935</v>
       </c>
       <c r="D40" s="19">
-        <v>9.1110999999999998E-2</v>
+        <v>9.3660999999999994E-2</v>
       </c>
       <c r="E40" s="19">
-        <v>0.34659800000000002</v>
+        <v>0.35629899999999998</v>
       </c>
       <c r="F40" s="20">
-        <v>1.2315E-2</v>
+        <v>1.2659999999999999E-2</v>
       </c>
       <c r="G40" s="21">
         <v>869.4</v>
@@ -4491,7 +4141,7 @@
         <v>2.1438220000000001</v>
       </c>
       <c r="P40" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q40" s="19">
         <v>253.391729</v>
@@ -4503,72 +4153,63 @@
         <v>23.795688999999999</v>
       </c>
       <c r="T40" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U40" s="19">
         <v>29.239992999999998</v>
       </c>
-      <c r="V40" s="19">
+      <c r="V40" s="20">
         <v>0.66476400000000002</v>
       </c>
-      <c r="W40" s="19">
-        <v>5.5247000000000002</v>
-      </c>
-      <c r="X40" s="19">
-        <v>6.3005000000000004</v>
-      </c>
-      <c r="Y40" s="20">
-        <v>4.6539999999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B41" s="47" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C41" s="32" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D41" s="33">
-        <v>0.81628299999999998</v>
+        <v>0.74193399999999998</v>
       </c>
       <c r="E41" s="33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F41" s="34" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G41" s="32" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H41" s="33">
         <v>358.82</v>
       </c>
       <c r="I41" s="33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J41" s="34" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K41" s="32">
         <v>5.0010779999999997</v>
       </c>
       <c r="L41" s="33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M41" s="33">
         <v>1.2999999999999999E-5</v>
       </c>
       <c r="N41" s="33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O41" s="33">
         <v>4.4986999999999999E-2</v>
       </c>
       <c r="P41" s="33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q41" s="33">
         <v>6.3822460000000003</v>
@@ -4580,72 +4221,63 @@
         <v>0.43234099999999998</v>
       </c>
       <c r="T41" s="33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U41" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="V41" s="33">
+        <v>25</v>
+      </c>
+      <c r="V41" s="34">
         <v>3.32E-3</v>
       </c>
-      <c r="W41" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="X41" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y41" s="34" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B42" s="47" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C42" s="32" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D42" s="33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E42" s="33">
-        <v>2.9111919999999998</v>
+        <v>2.8173550000000001</v>
       </c>
       <c r="F42" s="34" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G42" s="32" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H42" s="33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I42" s="33">
         <v>310</v>
       </c>
       <c r="J42" s="34" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K42" s="32">
         <v>43.641235999999999</v>
       </c>
       <c r="L42" s="33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M42" s="33">
         <v>33.333505000000002</v>
       </c>
       <c r="N42" s="33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O42" s="33">
         <v>9.1574100000000005</v>
       </c>
       <c r="P42" s="33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q42" s="33">
         <v>39.997754</v>
@@ -4657,42 +4289,33 @@
         <v>0.98051999999999995</v>
       </c>
       <c r="T42" s="33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U42" s="33">
         <v>30.078531000000002</v>
       </c>
-      <c r="V42" s="33">
+      <c r="V42" s="34">
         <v>0.14780799999999999</v>
       </c>
-      <c r="W42" s="33">
-        <v>23.138100000000001</v>
-      </c>
-      <c r="X42" s="33">
-        <v>23.138100000000001</v>
-      </c>
-      <c r="Y42" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C43" s="21">
-        <v>0.116258</v>
+        <v>0.10455399999999999</v>
       </c>
       <c r="D43" s="19">
-        <v>0.31073600000000001</v>
+        <v>0.27945500000000001</v>
       </c>
       <c r="E43" s="19">
-        <v>0.147122</v>
+        <v>0.13231200000000001</v>
       </c>
       <c r="F43" s="20">
-        <v>0.16583600000000001</v>
+        <v>0.149142</v>
       </c>
       <c r="G43" s="21">
         <v>167.92</v>
@@ -4722,7 +4345,7 @@
         <v>1.3056289999999999</v>
       </c>
       <c r="P43" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q43" s="19">
         <v>128.64448200000001</v>
@@ -4731,7 +4354,7 @@
         <v>109.626998</v>
       </c>
       <c r="S43" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T43" s="19">
         <v>1.1418250000000001</v>
@@ -4739,37 +4362,28 @@
       <c r="U43" s="19">
         <v>4.1025479999999996</v>
       </c>
-      <c r="V43" s="19">
+      <c r="V43" s="20">
         <v>0.18943299999999999</v>
       </c>
-      <c r="W43" s="19">
-        <v>14.898899999999999</v>
-      </c>
-      <c r="X43" s="19">
-        <v>19.834199999999999</v>
-      </c>
-      <c r="Y43" s="20">
-        <v>7.7747000000000002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B44" s="35" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C44" s="36">
-        <v>0.39344000000000001</v>
+        <v>0.36085200000000001</v>
       </c>
       <c r="D44" s="37">
-        <v>0.73920799999999998</v>
+        <v>0.67798199999999997</v>
       </c>
       <c r="E44" s="37" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F44" s="38">
-        <v>0.45445999999999998</v>
+        <v>0.41681800000000002</v>
       </c>
       <c r="G44" s="36">
         <v>190.98</v>
@@ -4778,7 +4392,7 @@
         <v>358.82</v>
       </c>
       <c r="I44" s="37" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J44" s="38">
         <v>220.6</v>
@@ -4811,40 +4425,31 @@
         <v>4.2452579999999998</v>
       </c>
       <c r="T44" s="37" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U44" s="37">
         <v>8.5866360000000004</v>
       </c>
-      <c r="V44" s="37">
+      <c r="V44" s="38">
         <v>0.30077500000000001</v>
       </c>
-      <c r="W44" s="37">
-        <v>14.7013</v>
-      </c>
-      <c r="X44" s="37">
-        <v>14.7013</v>
-      </c>
-      <c r="Y44" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="26"/>
       <c r="B45" s="27" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C45" s="28">
-        <v>0.216998</v>
+        <v>0.21782699999999999</v>
       </c>
       <c r="D45" s="29">
-        <v>0.177928</v>
+        <v>0.16846900000000001</v>
       </c>
       <c r="E45" s="29">
-        <v>0.35223500000000002</v>
+        <v>0.35762300000000002</v>
       </c>
       <c r="F45" s="30">
-        <v>6.2135999999999997E-2</v>
+        <v>5.7765999999999998E-2</v>
       </c>
       <c r="G45" s="28">
         <v>1228.3</v>
@@ -4891,49 +4496,40 @@
       <c r="U45" s="29">
         <v>72.007707999999994</v>
       </c>
-      <c r="V45" s="29">
+      <c r="V45" s="30">
         <v>1.876214</v>
       </c>
-      <c r="W45" s="29">
-        <v>11.6526</v>
-      </c>
-      <c r="X45" s="29">
-        <v>12.79482</v>
-      </c>
-      <c r="Y45" s="30">
-        <v>2.4857399999999998</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C46" s="40">
-        <v>4.8783E-2</v>
+        <v>4.4678000000000002E-2</v>
       </c>
       <c r="D46" s="41" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E46" s="41" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F46" s="42" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G46" s="40">
         <v>9.6</v>
       </c>
       <c r="H46" s="41" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I46" s="41" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J46" s="42" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K46" s="40">
         <v>66.439937</v>
@@ -4945,13 +4541,13 @@
         <v>6.016464</v>
       </c>
       <c r="N46" s="41" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O46" s="41">
         <v>7.8846629999999998</v>
       </c>
       <c r="P46" s="41" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q46" s="41">
         <v>159.953183</v>
@@ -4960,57 +4556,48 @@
         <v>45.052559000000002</v>
       </c>
       <c r="S46" s="41" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T46" s="41" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U46" s="41">
         <v>105.441873</v>
       </c>
-      <c r="V46" s="41">
+      <c r="V46" s="42">
         <v>6.0046000000000002E-2</v>
       </c>
-      <c r="W46" s="41">
-        <v>21.7986</v>
-      </c>
-      <c r="X46" s="41">
-        <v>25.871300000000002</v>
-      </c>
-      <c r="Y46" s="42">
-        <v>11.9992</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C47" s="21">
-        <v>0.21906600000000001</v>
+        <v>0.20060800000000001</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E47" s="19">
-        <v>2.2251210000000001</v>
+        <v>2.0376379999999998</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G47" s="21">
         <v>46.4</v>
       </c>
       <c r="H47" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I47" s="19">
         <v>471.3</v>
       </c>
       <c r="J47" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K47" s="21">
         <v>56.360228999999997</v>
@@ -5022,13 +4609,13 @@
         <v>59.702683</v>
       </c>
       <c r="N47" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O47" s="19">
         <v>15.997491</v>
       </c>
       <c r="P47" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q47" s="19">
         <v>100.788889</v>
@@ -5037,45 +4624,36 @@
         <v>20.458788999999999</v>
       </c>
       <c r="S47" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T47" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U47" s="19">
         <v>63.871944999999997</v>
       </c>
-      <c r="V47" s="19">
+      <c r="V47" s="20">
         <v>0.36491299999999999</v>
       </c>
-      <c r="W47" s="19">
-        <v>40.661099999999998</v>
-      </c>
-      <c r="X47" s="19">
-        <v>43.54</v>
-      </c>
-      <c r="Y47" s="20">
-        <v>24.916599999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B48" s="47" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C48" s="32">
-        <v>1.159313</v>
+        <v>1.100549</v>
       </c>
       <c r="D48" s="33">
-        <v>0.96609400000000001</v>
+        <v>0.91712400000000005</v>
       </c>
       <c r="E48" s="33">
-        <v>5.8035189999999997</v>
+        <v>5.509347</v>
       </c>
       <c r="F48" s="34" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G48" s="32">
         <v>30</v>
@@ -5087,13 +4665,13 @@
         <v>150.18</v>
       </c>
       <c r="J48" s="34" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K48" s="32">
         <v>12.277927999999999</v>
       </c>
       <c r="L48" s="33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M48" s="33">
         <v>3.5531549999999998</v>
@@ -5105,7 +4683,7 @@
         <v>12.820309</v>
       </c>
       <c r="P48" s="33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q48" s="33">
         <v>6.7580619999999998</v>
@@ -5114,45 +4692,36 @@
         <v>2.3267609999999999</v>
       </c>
       <c r="S48" s="33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T48" s="33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U48" s="33">
         <v>1.6996370000000001</v>
       </c>
-      <c r="V48" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="W48" s="33">
-        <v>27.401900000000001</v>
-      </c>
-      <c r="X48" s="33">
-        <v>27.401900000000001</v>
-      </c>
-      <c r="Y48" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V48" s="34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C49" s="21">
-        <v>7.5348999999999999E-2</v>
+        <v>6.8889000000000006E-2</v>
       </c>
       <c r="D49" s="19">
-        <v>0.21348800000000001</v>
+        <v>0.195187</v>
       </c>
       <c r="E49" s="19">
-        <v>0.22051999999999999</v>
+        <v>0.20161599999999999</v>
       </c>
       <c r="F49" s="20">
-        <v>0.241505</v>
+        <v>0.220802</v>
       </c>
       <c r="G49" s="21">
         <v>60</v>
@@ -5182,7 +4751,7 @@
         <v>59.404406999999999</v>
       </c>
       <c r="P49" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q49" s="19">
         <v>192.74576999999999</v>
@@ -5191,63 +4760,54 @@
         <v>28.53105</v>
       </c>
       <c r="S49" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T49" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U49" s="19">
         <v>134.44227000000001</v>
       </c>
-      <c r="V49" s="19">
+      <c r="V49" s="20">
         <v>0.91115500000000005</v>
       </c>
-      <c r="W49" s="19">
-        <v>21.101800000000001</v>
-      </c>
-      <c r="X49" s="19">
-        <v>25.686900000000001</v>
-      </c>
-      <c r="Y49" s="20">
-        <v>12.0474</v>
-      </c>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F50" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G50" s="21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H50" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I50" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J50" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K50" s="21">
         <v>9.0460600000000007</v>
       </c>
       <c r="L50" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M50" s="19">
         <v>26.38663</v>
@@ -5259,7 +4819,7 @@
         <v>1.162644</v>
       </c>
       <c r="P50" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q50" s="19">
         <v>73.243911999999995</v>
@@ -5268,45 +4828,36 @@
         <v>12.807586000000001</v>
       </c>
       <c r="S50" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T50" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U50" s="19">
         <v>49.071461999999997</v>
       </c>
-      <c r="V50" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="W50" s="19">
-        <v>24.995999999999999</v>
-      </c>
-      <c r="X50" s="19">
-        <v>24.995999999999999</v>
-      </c>
-      <c r="Y50" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V50" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C51" s="15">
-        <v>1.903233</v>
+        <v>1.850884</v>
       </c>
       <c r="D51" s="16">
-        <v>5.2143000000000002E-2</v>
+        <v>5.0708999999999997E-2</v>
       </c>
       <c r="E51" s="16">
-        <v>0.17008699999999999</v>
+        <v>0.165408</v>
       </c>
       <c r="F51" s="17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G51" s="15">
         <v>1533</v>
@@ -5318,7 +4869,7 @@
         <v>137</v>
       </c>
       <c r="J51" s="17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K51" s="15">
         <v>83.833169999999996</v>
@@ -5353,37 +4904,28 @@
       <c r="U51" s="16">
         <v>2.754715</v>
       </c>
-      <c r="V51" s="16">
+      <c r="V51" s="17">
         <v>1.8472390000000001</v>
       </c>
-      <c r="W51" s="16">
-        <v>26.9434</v>
-      </c>
-      <c r="X51" s="16">
-        <v>26.9434</v>
-      </c>
-      <c r="Y51" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C52" s="21">
-        <v>0.33625899999999997</v>
+        <v>0.31573499999999999</v>
       </c>
       <c r="D52" s="19">
-        <v>0.99976600000000004</v>
+        <v>0.93874500000000005</v>
       </c>
       <c r="E52" s="19">
-        <v>0.58460699999999999</v>
+        <v>0.548925</v>
       </c>
       <c r="F52" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G52" s="21">
         <v>76.5</v>
@@ -5395,7 +4937,7 @@
         <v>133</v>
       </c>
       <c r="J52" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K52" s="21">
         <v>30.360275000000001</v>
@@ -5407,13 +4949,13 @@
         <v>22.527090000000001</v>
       </c>
       <c r="N52" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O52" s="19">
         <v>5.6358480000000002</v>
       </c>
       <c r="P52" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q52" s="19">
         <v>97.719600999999997</v>
@@ -5425,72 +4967,63 @@
         <v>2.63</v>
       </c>
       <c r="T52" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U52" s="19">
         <v>70.797836000000004</v>
       </c>
-      <c r="V52" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="W52" s="19">
-        <v>24.463799999999999</v>
-      </c>
-      <c r="X52" s="19">
-        <v>24.463799999999999</v>
-      </c>
-      <c r="Y52" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V52" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D53" s="19">
-        <v>1.450296</v>
+        <v>1.3300609999999999</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F53" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G53" s="21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H53" s="19">
         <v>29.08</v>
       </c>
       <c r="I53" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J53" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K53" s="21">
         <v>8.0755160000000004</v>
       </c>
       <c r="L53" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M53" s="19">
         <v>5.756532</v>
       </c>
       <c r="N53" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O53" s="19">
         <v>7.1365999999999999E-2</v>
       </c>
       <c r="P53" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q53" s="19">
         <v>28.856096000000001</v>
@@ -5499,63 +5032,54 @@
         <v>1.789353</v>
       </c>
       <c r="S53" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T53" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U53" s="19">
         <v>24.032769999999999</v>
       </c>
-      <c r="V53" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="W53" s="19">
-        <v>17</v>
-      </c>
-      <c r="X53" s="19">
-        <v>17</v>
-      </c>
-      <c r="Y53" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V53" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G54" s="21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H54" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I54" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J54" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K54" s="21">
         <v>20.996935000000001</v>
       </c>
       <c r="L54" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M54" s="19">
         <v>53.677086000000003</v>
@@ -5567,7 +5091,7 @@
         <v>5.0205109999999999</v>
       </c>
       <c r="P54" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q54" s="19">
         <v>45.253391000000001</v>
@@ -5579,54 +5103,45 @@
         <v>4.9099999999999998E-2</v>
       </c>
       <c r="T54" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U54" s="19">
         <v>11.088697</v>
       </c>
-      <c r="V54" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="W54" s="19">
-        <v>38.371400000000001</v>
-      </c>
-      <c r="X54" s="19">
-        <v>42.402900000000002</v>
-      </c>
-      <c r="Y54" s="20">
-        <v>5.9165999999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V54" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C55" s="21">
-        <v>0.26434400000000002</v>
+        <v>0.24573300000000001</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F55" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G55" s="21">
         <v>56</v>
       </c>
       <c r="H55" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I55" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J55" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K55" s="21">
         <v>58.474541000000002</v>
@@ -5638,13 +5153,13 @@
         <v>29.533667999999999</v>
       </c>
       <c r="N55" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O55" s="19">
         <v>2.3615849999999998</v>
       </c>
       <c r="P55" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q55" s="19">
         <v>26.506148</v>
@@ -5653,75 +5168,66 @@
         <v>6.2101940000000004</v>
       </c>
       <c r="S55" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T55" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U55" s="19">
         <v>9.40977</v>
       </c>
-      <c r="V55" s="19">
+      <c r="V55" s="20">
         <v>0.211923</v>
       </c>
-      <c r="W55" s="19">
-        <v>33.751899999999999</v>
-      </c>
-      <c r="X55" s="19">
-        <v>33.751899999999999</v>
-      </c>
-      <c r="Y55" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F56" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G56" s="21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H56" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I56" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J56" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K56" s="21">
         <v>26.750699000000001</v>
       </c>
       <c r="L56" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M56" s="19">
         <v>51.619565999999999</v>
       </c>
       <c r="N56" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O56" s="19">
         <v>7.5729100000000003</v>
       </c>
       <c r="P56" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q56" s="19">
         <v>83.353166999999999</v>
@@ -5733,42 +5239,33 @@
         <v>4.4889729999999997</v>
       </c>
       <c r="T56" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U56" s="19">
         <v>29.494198999999998</v>
       </c>
-      <c r="V56" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="W56" s="19">
-        <v>35.960900000000002</v>
-      </c>
-      <c r="X56" s="19">
-        <v>35.960900000000002</v>
-      </c>
-      <c r="Y56" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V56" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C57" s="21">
-        <v>3.1884000000000003E-2</v>
+        <v>4.6011999999999997E-2</v>
       </c>
       <c r="D57" s="19">
-        <v>1.3519999999999999E-3</v>
+        <v>1.952E-3</v>
       </c>
       <c r="E57" s="19">
-        <v>1.8690999999999999E-2</v>
+        <v>2.6971999999999999E-2</v>
       </c>
       <c r="F57" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G57" s="21">
         <v>116</v>
@@ -5780,13 +5277,13 @@
         <v>68</v>
       </c>
       <c r="J57" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K57" s="21">
         <v>100.105373</v>
       </c>
       <c r="L57" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M57" s="19">
         <v>14.243772</v>
@@ -5798,7 +5295,7 @@
         <v>24.211787000000001</v>
       </c>
       <c r="P57" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q57" s="19">
         <v>381.37263000000002</v>
@@ -5810,42 +5307,33 @@
         <v>0.49366300000000002</v>
       </c>
       <c r="T57" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U57" s="19">
         <v>330.92397899999997</v>
       </c>
-      <c r="V57" s="19">
+      <c r="V57" s="20">
         <v>0.40024999999999999</v>
       </c>
-      <c r="W57" s="19">
-        <v>18.4176</v>
-      </c>
-      <c r="X57" s="19">
-        <v>18.801100000000002</v>
-      </c>
-      <c r="Y57" s="20">
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C58" s="21">
-        <v>0.971271</v>
+        <v>0.90642999999999996</v>
       </c>
       <c r="D58" s="19">
-        <v>0.293879</v>
+        <v>0.27426</v>
       </c>
       <c r="E58" s="19">
-        <v>3.6571630000000002</v>
+        <v>3.413017</v>
       </c>
       <c r="F58" s="20">
-        <v>0.107756</v>
+        <v>0.100562</v>
       </c>
       <c r="G58" s="21">
         <v>297.45</v>
@@ -5875,7 +5363,7 @@
         <v>1.191478</v>
       </c>
       <c r="P58" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q58" s="19">
         <v>210.34679199999999</v>
@@ -5887,60 +5375,51 @@
         <v>60.376260000000002</v>
       </c>
       <c r="T58" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U58" s="19">
         <v>107.426641</v>
       </c>
-      <c r="V58" s="19">
+      <c r="V58" s="20">
         <v>0.124108</v>
       </c>
-      <c r="W58" s="19">
-        <v>16.356300000000001</v>
-      </c>
-      <c r="X58" s="19">
-        <v>20.746700000000001</v>
-      </c>
-      <c r="Y58" s="20">
-        <v>10.081200000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C59" s="21">
-        <v>1.8759999999999999E-2</v>
+        <v>1.54E-2</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E59" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F59" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G59" s="21">
         <v>1.2</v>
       </c>
       <c r="H59" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I59" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J59" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K59" s="21">
         <v>10.310890000000001</v>
       </c>
       <c r="L59" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M59" s="19">
         <v>23.990857999999999</v>
@@ -5952,7 +5431,7 @@
         <v>8.7716069999999995</v>
       </c>
       <c r="P59" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q59" s="19">
         <v>41.168858999999998</v>
@@ -5961,57 +5440,48 @@
         <v>4.7910019999999998</v>
       </c>
       <c r="S59" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T59" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U59" s="19">
         <v>16.590520000000001</v>
       </c>
-      <c r="V59" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="W59" s="19">
-        <v>0</v>
-      </c>
-      <c r="X59" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y59" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V59" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C60" s="23">
-        <v>0.83827399999999996</v>
+        <v>0.77860399999999996</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E60" s="24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G60" s="23">
         <v>76.12</v>
       </c>
       <c r="H60" s="24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I60" s="24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J60" s="25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K60" s="23">
         <v>27.837447000000001</v>
@@ -6023,13 +5493,13 @@
         <v>17.239640000000001</v>
       </c>
       <c r="N60" s="24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O60" s="24">
         <v>9.3828680000000002</v>
       </c>
       <c r="P60" s="24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q60" s="24">
         <v>32.729208999999997</v>
@@ -6038,43 +5508,34 @@
         <v>2.6373150000000001</v>
       </c>
       <c r="S60" s="24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T60" s="24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U60" s="24">
         <v>20.970859000000001</v>
       </c>
-      <c r="V60" s="24">
+      <c r="V60" s="25">
         <v>0.30276799999999998</v>
       </c>
-      <c r="W60" s="24">
-        <v>30.727399999999999</v>
-      </c>
-      <c r="X60" s="24">
-        <v>33.928400000000003</v>
-      </c>
-      <c r="Y60" s="25">
-        <v>12.164300000000001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="26"/>
       <c r="B61" s="27" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C61" s="28">
-        <v>0.31298599999999999</v>
+        <v>0.25995200000000002</v>
       </c>
       <c r="D61" s="29">
-        <v>8.0318000000000001E-2</v>
+        <v>6.0292999999999999E-2</v>
       </c>
       <c r="E61" s="29">
-        <v>0.30561199999999999</v>
+        <v>0.23789199999999999</v>
       </c>
       <c r="F61" s="30">
-        <v>0.20433699999999999</v>
+        <v>0.18729699999999999</v>
       </c>
       <c r="G61" s="28">
         <v>2302.27</v>
@@ -6121,35 +5582,26 @@
       <c r="U61" s="29">
         <v>978.01717299999996</v>
       </c>
-      <c r="V61" s="29">
+      <c r="V61" s="30">
         <v>4.2224019999999998</v>
       </c>
-      <c r="W61" s="29">
-        <v>25.196807</v>
-      </c>
-      <c r="X61" s="29">
-        <v>26.766347</v>
-      </c>
-      <c r="Y61" s="30">
-        <v>6.0416869999999996</v>
-      </c>
-    </row>
-    <row r="62" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="48"/>
       <c r="B62" s="49" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C62" s="50">
-        <v>0.23436100000000001</v>
+        <v>0.218525</v>
       </c>
       <c r="D62" s="51">
-        <v>0.20121800000000001</v>
+        <v>0.181641</v>
       </c>
       <c r="E62" s="51">
-        <v>0.33746399999999999</v>
+        <v>0.30803199999999997</v>
       </c>
       <c r="F62" s="52">
-        <v>0.102549</v>
+        <v>9.6930000000000002E-2</v>
       </c>
       <c r="G62" s="50">
         <v>6049.77</v>
@@ -6196,35 +5648,26 @@
       <c r="U62" s="51">
         <v>1871.471841</v>
       </c>
-      <c r="V62" s="51">
+      <c r="V62" s="52">
         <v>12.520203</v>
       </c>
-      <c r="W62" s="51">
-        <v>20.020814000000001</v>
-      </c>
-      <c r="X62" s="51">
-        <v>21.481311999999999</v>
-      </c>
-      <c r="Y62" s="52">
-        <v>4.5957290000000004</v>
-      </c>
-    </row>
-    <row r="63" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="48"/>
       <c r="B63" s="49" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C63" s="50">
-        <v>0.17341400000000001</v>
+        <v>0.16554099999999999</v>
       </c>
       <c r="D63" s="51">
-        <v>3.3695000000000003E-2</v>
+        <v>3.2080999999999998E-2</v>
       </c>
       <c r="E63" s="51">
-        <v>7.5121999999999994E-2</v>
+        <v>7.1045999999999998E-2</v>
       </c>
       <c r="F63" s="52">
-        <v>1.5789000000000001E-2</v>
+        <v>1.5051E-2</v>
       </c>
       <c r="G63" s="50">
         <v>68831.3</v>
@@ -6271,35 +5714,26 @@
       <c r="U63" s="51">
         <v>1820.3082099999999</v>
       </c>
-      <c r="V63" s="51">
+      <c r="V63" s="52">
         <v>10.332749</v>
       </c>
-      <c r="W63" s="51">
-        <v>14.860353999999999</v>
-      </c>
-      <c r="X63" s="51">
-        <v>16.314520999999999</v>
-      </c>
-      <c r="Y63" s="52">
-        <v>4.3003470000000004</v>
-      </c>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A64" s="53"/>
       <c r="B64" s="54" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C64" s="55">
-        <v>0.16143199999999999</v>
+        <v>0.15668099999999999</v>
       </c>
       <c r="D64" s="56">
-        <v>4.2125999999999997E-2</v>
+        <v>4.0347000000000001E-2</v>
       </c>
       <c r="E64" s="56">
-        <v>0.150529</v>
+        <v>0.145648</v>
       </c>
       <c r="F64" s="57">
-        <v>1.0975E-2</v>
+        <v>1.0779E-2</v>
       </c>
       <c r="G64" s="55">
         <v>8878.59</v>
@@ -6341,40 +5775,31 @@
         <v>3.6468E-2</v>
       </c>
       <c r="T64" s="56" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U64" s="56">
         <v>415.89161300000001</v>
       </c>
-      <c r="V64" s="56">
+      <c r="V64" s="57">
         <v>2.1541239999999999</v>
       </c>
-      <c r="W64" s="56">
-        <v>16.767147999999999</v>
-      </c>
-      <c r="X64" s="56">
-        <v>17.796357</v>
-      </c>
-      <c r="Y64" s="57">
-        <v>7.6136429999999997</v>
-      </c>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A65" s="53"/>
       <c r="B65" s="58" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C65" s="59">
-        <v>0.18485399999999999</v>
+        <v>0.17668900000000001</v>
       </c>
       <c r="D65" s="60">
-        <v>3.1681000000000001E-2</v>
+        <v>3.0188E-2</v>
       </c>
       <c r="E65" s="60">
-        <v>7.4250999999999998E-2</v>
+        <v>7.0061999999999999E-2</v>
       </c>
       <c r="F65" s="61">
-        <v>1.0907999999999999E-2</v>
+        <v>1.0437E-2</v>
       </c>
       <c r="G65" s="59">
         <v>51880.13</v>
@@ -6421,35 +5846,26 @@
       <c r="U65" s="60">
         <v>768.66489300000001</v>
       </c>
-      <c r="V65" s="60">
+      <c r="V65" s="61">
         <v>6.7097389999999999</v>
       </c>
-      <c r="W65" s="60">
-        <v>14.326670999999999</v>
-      </c>
-      <c r="X65" s="60">
-        <v>16.290103999999999</v>
-      </c>
-      <c r="Y65" s="61">
-        <v>3.2611319999999999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="53"/>
       <c r="B66" s="62" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C66" s="63">
-        <v>0.17844099999999999</v>
+        <v>0.17016000000000001</v>
       </c>
       <c r="D66" s="64">
-        <v>5.2165999999999997E-2</v>
+        <v>4.9389000000000002E-2</v>
       </c>
       <c r="E66" s="64">
-        <v>9.4982999999999998E-2</v>
+        <v>8.9982000000000006E-2</v>
       </c>
       <c r="F66" s="65">
-        <v>1.9268E-2</v>
+        <v>1.8273000000000001E-2</v>
       </c>
       <c r="G66" s="63">
         <v>74881.070000000007</v>
@@ -6496,35 +5912,26 @@
       <c r="U66" s="64">
         <v>3691.7800510000002</v>
       </c>
-      <c r="V66" s="64">
+      <c r="V66" s="65">
         <v>22.852951999999998</v>
       </c>
-      <c r="W66" s="64">
-        <v>16.985250000000001</v>
-      </c>
-      <c r="X66" s="64">
-        <v>18.442024</v>
-      </c>
-      <c r="Y66" s="65">
-        <v>4.4219749999999998</v>
-      </c>
-    </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A67" s="53"/>
       <c r="B67" s="58" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C67" s="59">
-        <v>0.20919399999999999</v>
+        <v>0.207707</v>
       </c>
       <c r="D67" s="60">
-        <v>0.25955</v>
+        <v>0.2535</v>
       </c>
       <c r="E67" s="60">
-        <v>0.47919899999999999</v>
+        <v>0.47315499999999999</v>
       </c>
       <c r="F67" s="61">
-        <v>5.2656000000000001E-2</v>
+        <v>5.0599999999999999E-2</v>
       </c>
       <c r="G67" s="59">
         <v>1990.42</v>
@@ -6566,40 +5973,31 @@
         <v>33.643113</v>
       </c>
       <c r="T67" s="60" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U67" s="60">
         <v>352.49788999999998</v>
       </c>
-      <c r="V67" s="60">
+      <c r="V67" s="61">
         <v>7.121105</v>
       </c>
-      <c r="W67" s="60">
-        <v>17.982032</v>
-      </c>
-      <c r="X67" s="60">
-        <v>19.238516000000001</v>
-      </c>
-      <c r="Y67" s="61">
-        <v>3.097674</v>
-      </c>
-    </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A68" s="53"/>
       <c r="B68" s="58" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C68" s="59">
-        <v>0.26692500000000002</v>
+        <v>0.24452599999999999</v>
       </c>
       <c r="D68" s="60">
-        <v>0.15390100000000001</v>
+        <v>0.130629</v>
       </c>
       <c r="E68" s="60">
-        <v>0.36532199999999998</v>
+        <v>0.32677200000000001</v>
       </c>
       <c r="F68" s="61">
-        <v>7.7010999999999996E-2</v>
+        <v>7.1724999999999997E-2</v>
       </c>
       <c r="G68" s="59">
         <v>3729.74</v>
@@ -6646,35 +6044,26 @@
       <c r="U68" s="60">
         <v>1049.8808770000001</v>
       </c>
-      <c r="V68" s="60">
+      <c r="V68" s="61">
         <v>5.6083970000000001</v>
       </c>
-      <c r="W68" s="60">
-        <v>17.431479</v>
-      </c>
-      <c r="X68" s="60">
-        <v>18.482424999999999</v>
-      </c>
-      <c r="Y68" s="61">
-        <v>4.0473920000000003</v>
-      </c>
-    </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A69" s="53"/>
       <c r="B69" s="58" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C69" s="59">
-        <v>9.3133999999999995E-2</v>
+        <v>8.6395E-2</v>
       </c>
       <c r="D69" s="60">
-        <v>0.48929800000000001</v>
+        <v>0.46261999999999998</v>
       </c>
       <c r="E69" s="60">
-        <v>0.49205900000000002</v>
+        <v>0.45267200000000002</v>
       </c>
       <c r="F69" s="61">
-        <v>0.41866999999999999</v>
+        <v>0.42100900000000002</v>
       </c>
       <c r="G69" s="59">
         <v>295.60000000000002</v>
@@ -6716,40 +6105,31 @@
         <v>4.8559200000000002</v>
       </c>
       <c r="T69" s="60" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U69" s="60">
         <v>445.16102100000001</v>
       </c>
-      <c r="V69" s="60">
+      <c r="V69" s="61">
         <v>0.222055</v>
       </c>
-      <c r="W69" s="60">
-        <v>28.098966999999998</v>
-      </c>
-      <c r="X69" s="60">
-        <v>32.108049999999999</v>
-      </c>
-      <c r="Y69" s="61">
-        <v>8.1563999999999997</v>
-      </c>
-    </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A70" s="53"/>
       <c r="B70" s="58" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C70" s="59">
-        <v>0.16145799999999999</v>
+        <v>0.148946</v>
       </c>
       <c r="D70" s="60">
-        <v>0.39068399999999998</v>
+        <v>0.367008</v>
       </c>
       <c r="E70" s="60">
-        <v>0.54690799999999995</v>
+        <v>0.50095500000000004</v>
       </c>
       <c r="F70" s="61">
-        <v>0.67639700000000003</v>
+        <v>0.65241700000000002</v>
       </c>
       <c r="G70" s="59">
         <v>463</v>
@@ -6791,40 +6171,31 @@
         <v>4.4735440000000004</v>
       </c>
       <c r="T70" s="60" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U70" s="60">
         <v>94.893770000000004</v>
       </c>
-      <c r="V70" s="60">
+      <c r="V70" s="61">
         <v>0.12006</v>
       </c>
-      <c r="W70" s="60">
-        <v>21.63983</v>
-      </c>
-      <c r="X70" s="60">
-        <v>22.16488</v>
-      </c>
-      <c r="Y70" s="61">
-        <v>7.7575200000000004</v>
-      </c>
-    </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A71" s="53"/>
       <c r="B71" s="58" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C71" s="59">
-        <v>0.31298599999999999</v>
+        <v>0.25995200000000002</v>
       </c>
       <c r="D71" s="60">
-        <v>8.0318000000000001E-2</v>
+        <v>6.0292999999999999E-2</v>
       </c>
       <c r="E71" s="60">
-        <v>0.30561199999999999</v>
+        <v>0.23789199999999999</v>
       </c>
       <c r="F71" s="61">
-        <v>0.20433699999999999</v>
+        <v>0.18729699999999999</v>
       </c>
       <c r="G71" s="59">
         <v>2302.27</v>
@@ -6871,35 +6242,26 @@
       <c r="U71" s="60">
         <v>978.01717299999996</v>
       </c>
-      <c r="V71" s="60">
+      <c r="V71" s="61">
         <v>4.2224019999999998</v>
       </c>
-      <c r="W71" s="60">
-        <v>25.196807</v>
-      </c>
-      <c r="X71" s="60">
-        <v>26.766347</v>
-      </c>
-      <c r="Y71" s="61">
-        <v>6.0416869999999996</v>
-      </c>
-    </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A72" s="53"/>
       <c r="B72" s="58" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C72" s="59">
-        <v>0.160471</v>
+        <v>0.16215499999999999</v>
       </c>
       <c r="D72" s="60">
-        <v>0.35976999999999998</v>
+        <v>0.35420600000000002</v>
       </c>
       <c r="E72" s="60">
-        <v>0.53422599999999998</v>
+        <v>0.52318699999999996</v>
       </c>
       <c r="F72" s="61" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G72" s="59">
         <v>574.77</v>
@@ -6911,7 +6273,7 @@
         <v>1014.67</v>
       </c>
       <c r="J72" s="61" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K72" s="59">
         <v>672.54575599999998</v>
@@ -6941,40 +6303,31 @@
         <v>0.49184</v>
       </c>
       <c r="T72" s="60" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U72" s="60">
         <v>141.18575100000001</v>
       </c>
-      <c r="V72" s="60">
+      <c r="V72" s="61">
         <v>0.23182</v>
       </c>
-      <c r="W72" s="60">
-        <v>12.1845</v>
-      </c>
-      <c r="X72" s="60">
-        <v>13.72255</v>
-      </c>
-      <c r="Y72" s="61">
-        <v>4.315067</v>
-      </c>
-    </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A73" s="53"/>
       <c r="B73" s="58" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C73" s="59">
-        <v>0.1996</v>
+        <v>0.18503500000000001</v>
       </c>
       <c r="D73" s="60">
-        <v>0.257685</v>
+        <v>0.24632699999999999</v>
       </c>
       <c r="E73" s="60">
-        <v>0.27697300000000002</v>
+        <v>0.26239699999999999</v>
       </c>
       <c r="F73" s="61">
-        <v>0.47395199999999998</v>
+        <v>0.47529700000000003</v>
       </c>
       <c r="G73" s="59">
         <v>1643.43</v>
@@ -7021,35 +6374,26 @@
       <c r="U73" s="60">
         <v>600.05224999999996</v>
       </c>
-      <c r="V73" s="60">
+      <c r="V73" s="61">
         <v>6.0762260000000001</v>
       </c>
-      <c r="W73" s="60">
-        <v>22.966436000000002</v>
-      </c>
-      <c r="X73" s="60">
-        <v>24.975093000000001</v>
-      </c>
-      <c r="Y73" s="61">
-        <v>3.0996790000000001</v>
-      </c>
-    </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A74" s="53"/>
       <c r="B74" s="58" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C74" s="59">
-        <v>0.20240900000000001</v>
+        <v>0.182864</v>
       </c>
       <c r="D74" s="60">
-        <v>0.30726999999999999</v>
+        <v>0.27873900000000001</v>
       </c>
       <c r="E74" s="60">
-        <v>0.38129299999999999</v>
+        <v>0.36430899999999999</v>
       </c>
       <c r="F74" s="61">
-        <v>0.25554300000000002</v>
+        <v>0.23092799999999999</v>
       </c>
       <c r="G74" s="59">
         <v>358.9</v>
@@ -7096,35 +6440,26 @@
       <c r="U74" s="60">
         <v>42.767715000000003</v>
       </c>
-      <c r="V74" s="60">
+      <c r="V74" s="61">
         <v>1.2114499999999999</v>
       </c>
-      <c r="W74" s="60">
-        <v>13.184575000000001</v>
-      </c>
-      <c r="X74" s="60">
-        <v>14.4184</v>
-      </c>
-      <c r="Y74" s="61">
-        <v>1.943675</v>
-      </c>
-    </row>
-    <row r="75" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="53"/>
       <c r="B75" s="58" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C75" s="66">
-        <v>0.135542</v>
+        <v>0.12639500000000001</v>
       </c>
       <c r="D75" s="67">
-        <v>0.44427299999999997</v>
+        <v>0.41012799999999999</v>
       </c>
       <c r="E75" s="67">
-        <v>0.256637</v>
+        <v>0.245591</v>
       </c>
       <c r="F75" s="68" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G75" s="66">
         <v>202</v>
@@ -7136,7 +6471,7 @@
         <v>340.18</v>
       </c>
       <c r="J75" s="68" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K75" s="66">
         <v>178.22017700000001</v>
@@ -7154,7 +6489,7 @@
         <v>158.98063999999999</v>
       </c>
       <c r="P75" s="67" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q75" s="67">
         <v>334.34741200000002</v>
@@ -7166,40 +6501,31 @@
         <v>1.7553479999999999</v>
       </c>
       <c r="T75" s="67" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U75" s="67">
         <v>154.08681999999999</v>
       </c>
-      <c r="V75" s="67">
+      <c r="V75" s="68">
         <v>6.5189999999999996E-3</v>
       </c>
-      <c r="W75" s="67">
-        <v>20.893380000000001</v>
-      </c>
-      <c r="X75" s="67">
-        <v>20.83062</v>
-      </c>
-      <c r="Y75" s="68">
-        <v>3.8448799999999999</v>
-      </c>
-    </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A76" s="53"/>
       <c r="B76" s="69" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C76" s="70">
-        <v>0.16328100000000001</v>
+        <v>0.153974</v>
       </c>
       <c r="D76" s="71">
-        <v>0.175733</v>
+        <v>0.16895399999999999</v>
       </c>
       <c r="E76" s="71">
-        <v>0.28860200000000003</v>
+        <v>0.27621099999999998</v>
       </c>
       <c r="F76" s="72">
-        <v>5.1163E-2</v>
+        <v>4.9806000000000003E-2</v>
       </c>
       <c r="G76" s="70">
         <v>4994.3599999999997</v>
@@ -7246,35 +6572,26 @@
       <c r="U76" s="71">
         <v>182.88709700000001</v>
       </c>
-      <c r="V76" s="71">
+      <c r="V76" s="72">
         <v>1.5856380000000001</v>
       </c>
-      <c r="W76" s="71">
-        <v>16.130171000000001</v>
-      </c>
-      <c r="X76" s="71">
-        <v>17.308657</v>
-      </c>
-      <c r="Y76" s="72">
-        <v>8.2384140000000006</v>
-      </c>
-    </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A77" s="53"/>
       <c r="B77" s="58" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C77" s="59">
-        <v>0.20094400000000001</v>
+        <v>0.194831</v>
       </c>
       <c r="D77" s="60">
-        <v>4.0409E-2</v>
+        <v>3.9172999999999999E-2</v>
       </c>
       <c r="E77" s="60">
-        <v>0.195411</v>
+        <v>0.18942600000000001</v>
       </c>
       <c r="F77" s="61">
-        <v>1.7054E-2</v>
+        <v>1.6653999999999999E-2</v>
       </c>
       <c r="G77" s="59">
         <v>7321.57</v>
@@ -7316,115 +6633,97 @@
         <v>3.3340000000000002E-2</v>
       </c>
       <c r="T77" s="60" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U77" s="60">
         <v>126.646041</v>
       </c>
-      <c r="V77" s="60">
+      <c r="V77" s="61">
         <v>0.48802200000000001</v>
       </c>
-      <c r="W77" s="60">
-        <v>17.944678</v>
-      </c>
-      <c r="X77" s="60">
-        <v>20.334744000000001</v>
-      </c>
-      <c r="Y77" s="61">
-        <v>10.034178000000001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A78" s="53"/>
       <c r="B78" s="58" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C78" s="59">
-        <v>8.7783E-2</v>
+        <v>8.0990000000000006E-2</v>
       </c>
       <c r="D78" s="60" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E78" s="60">
-        <v>7.4333999999999997E-2</v>
+        <v>6.8729999999999999E-2</v>
       </c>
       <c r="F78" s="61" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G78" s="59">
         <v>407.74</v>
       </c>
       <c r="H78" s="60" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I78" s="60">
         <v>347.64</v>
       </c>
       <c r="J78" s="61" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K78" s="59" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L78" s="60" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M78" s="60" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N78" s="60" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O78" s="60" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P78" s="60" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q78" s="60" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R78" s="60" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="S78" s="60" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T78" s="60" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U78" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="V78" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="W78" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="X78" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y78" s="61" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="79" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="V78" s="61" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="53"/>
       <c r="B79" s="62" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C79" s="63">
-        <v>4.5457999999999998E-2</v>
+        <v>3.9026999999999999E-2</v>
       </c>
       <c r="D79" s="64">
-        <v>1.7713E-2</v>
+        <v>1.6372999999999999E-2</v>
       </c>
       <c r="E79" s="64">
-        <v>4.3817000000000002E-2</v>
+        <v>3.8961000000000003E-2</v>
       </c>
       <c r="F79" s="65">
-        <v>8.1899999999999996E-4</v>
+        <v>7.9199999999999995E-4</v>
       </c>
       <c r="G79" s="63">
         <v>1215.3699999999999</v>
@@ -7466,40 +6765,31 @@
         <v>3.1280000000000001E-3</v>
       </c>
       <c r="T79" s="64" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U79" s="64">
         <v>99.604817999999995</v>
       </c>
-      <c r="V79" s="64">
+      <c r="V79" s="65">
         <v>0.13947000000000001</v>
       </c>
-      <c r="W79" s="64">
-        <v>17.391625000000001</v>
-      </c>
-      <c r="X79" s="64">
-        <v>18.488150000000001</v>
-      </c>
-      <c r="Y79" s="65">
-        <v>16.473800000000001</v>
-      </c>
-    </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A80" s="53"/>
       <c r="B80" s="69" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C80" s="70">
-        <v>0.16903899999999999</v>
+        <v>0.15995500000000001</v>
       </c>
       <c r="D80" s="71">
-        <v>0.21415000000000001</v>
+        <v>0.197463</v>
       </c>
       <c r="E80" s="71">
-        <v>0.56030800000000003</v>
+        <v>0.54138900000000001</v>
       </c>
       <c r="F80" s="72">
-        <v>0.91322000000000003</v>
+        <v>0.876448</v>
       </c>
       <c r="G80" s="70">
         <v>272</v>
@@ -7529,7 +6819,7 @@
         <v>29.236504</v>
       </c>
       <c r="P80" s="71" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q80" s="71">
         <v>76.918584999999993</v>
@@ -7541,40 +6831,31 @@
         <v>1.4128609999999999</v>
       </c>
       <c r="T80" s="71" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U80" s="71">
         <v>35.155852000000003</v>
       </c>
-      <c r="V80" s="71">
+      <c r="V80" s="72">
         <v>0.74589499999999997</v>
       </c>
-      <c r="W80" s="71">
-        <v>18.547629000000001</v>
-      </c>
-      <c r="X80" s="71">
-        <v>18.779900000000001</v>
-      </c>
-      <c r="Y80" s="72">
-        <v>4.762543</v>
-      </c>
-    </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A81" s="53"/>
       <c r="B81" s="58" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C81" s="59">
-        <v>0.143567</v>
+        <v>0.132877</v>
       </c>
       <c r="D81" s="60">
-        <v>3.3142999999999999E-2</v>
+        <v>3.2411000000000002E-2</v>
       </c>
       <c r="E81" s="60">
-        <v>4.0406999999999998E-2</v>
+        <v>3.8099000000000001E-2</v>
       </c>
       <c r="F81" s="61">
-        <v>6.2191000000000003E-2</v>
+        <v>5.8675999999999999E-2</v>
       </c>
       <c r="G81" s="59">
         <v>6852.89</v>
@@ -7621,35 +6902,26 @@
       <c r="U81" s="60">
         <v>184.10195300000001</v>
       </c>
-      <c r="V81" s="60">
+      <c r="V81" s="61">
         <v>4.3038220000000003</v>
       </c>
-      <c r="W81" s="60">
-        <v>9.3572170000000003</v>
-      </c>
-      <c r="X81" s="60">
-        <v>10.346825000000001</v>
-      </c>
-      <c r="Y81" s="61">
-        <v>2.9279250000000001</v>
-      </c>
-    </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A82" s="53"/>
       <c r="B82" s="58" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C82" s="59">
-        <v>0.23819199999999999</v>
+        <v>0.221744</v>
       </c>
       <c r="D82" s="60">
-        <v>0.199071</v>
+        <v>0.179199</v>
       </c>
       <c r="E82" s="60">
-        <v>0.32291199999999998</v>
+        <v>0.29373199999999999</v>
       </c>
       <c r="F82" s="61">
-        <v>8.8980000000000004E-2</v>
+        <v>8.3835000000000007E-2</v>
       </c>
       <c r="G82" s="59">
         <v>5777.77</v>
@@ -7696,35 +6968,26 @@
       <c r="U82" s="60">
         <v>1836.3159889999999</v>
       </c>
-      <c r="V82" s="60">
+      <c r="V82" s="61">
         <v>11.774308</v>
       </c>
-      <c r="W82" s="60">
-        <v>20.266345000000001</v>
-      </c>
-      <c r="X82" s="60">
-        <v>21.931547999999999</v>
-      </c>
-      <c r="Y82" s="61">
-        <v>4.5679259999999999</v>
-      </c>
-    </row>
-    <row r="83" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="53"/>
       <c r="B83" s="62" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C83" s="63">
-        <v>0.17752699999999999</v>
+        <v>0.17005999999999999</v>
       </c>
       <c r="D83" s="64">
-        <v>3.3702999999999997E-2</v>
+        <v>3.2076E-2</v>
       </c>
       <c r="E83" s="64">
-        <v>7.9406000000000004E-2</v>
+        <v>7.5117000000000003E-2</v>
       </c>
       <c r="F83" s="65">
-        <v>1.0893E-2</v>
+        <v>1.0487E-2</v>
       </c>
       <c r="G83" s="63">
         <v>61978.41</v>
@@ -7771,35 +7034,26 @@
       <c r="U83" s="64">
         <v>1636.2062570000001</v>
       </c>
-      <c r="V83" s="64">
+      <c r="V83" s="65">
         <v>6.0289270000000004</v>
       </c>
-      <c r="W83" s="64">
-        <v>15.998934</v>
-      </c>
-      <c r="X83" s="64">
-        <v>17.549216999999999</v>
-      </c>
-      <c r="Y83" s="65">
-        <v>4.5842970000000003</v>
-      </c>
-    </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A84" s="53"/>
       <c r="B84" s="69" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C84" s="70">
-        <v>0.18700900000000001</v>
+        <v>0.17377000000000001</v>
       </c>
       <c r="D84" s="71">
-        <v>0.89308900000000002</v>
+        <v>0.81538999999999995</v>
       </c>
       <c r="E84" s="71">
-        <v>1.308494</v>
+        <v>1.2586189999999999</v>
       </c>
       <c r="F84" s="72">
-        <v>0.41866999999999999</v>
+        <v>0.42100900000000002</v>
       </c>
       <c r="G84" s="70">
         <v>500.99</v>
@@ -7841,40 +7095,31 @@
         <v>11.365406</v>
       </c>
       <c r="T84" s="71" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U84" s="71">
         <v>554.19942100000003</v>
       </c>
-      <c r="V84" s="71">
+      <c r="V84" s="72">
         <v>6.3992050000000003</v>
       </c>
-      <c r="W84" s="71">
-        <v>23.716449999999998</v>
-      </c>
-      <c r="X84" s="71">
-        <v>24.753205000000001</v>
-      </c>
-      <c r="Y84" s="72">
-        <v>3.9498700000000002</v>
-      </c>
-    </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A85" s="53"/>
       <c r="B85" s="73" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C85" s="59">
-        <v>1.104417</v>
+        <v>1.053593</v>
       </c>
       <c r="D85" s="60">
-        <v>0.14423900000000001</v>
+        <v>0.146591</v>
       </c>
       <c r="E85" s="60" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F85" s="61" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G85" s="59">
         <v>190.49</v>
@@ -7883,10 +7128,10 @@
         <v>304</v>
       </c>
       <c r="I85" s="60" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J85" s="61" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K85" s="59">
         <v>214.248211</v>
@@ -7898,13 +7143,13 @@
         <v>47.430669999999999</v>
       </c>
       <c r="N85" s="60" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O85" s="60">
         <v>3.445621</v>
       </c>
       <c r="P85" s="60" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q85" s="60">
         <v>191.54131000000001</v>
@@ -7916,40 +7161,31 @@
         <v>37.918500999999999</v>
       </c>
       <c r="T85" s="60" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U85" s="60">
         <v>29.221947</v>
       </c>
-      <c r="V85" s="60">
+      <c r="V85" s="61">
         <v>0.37279699999999999</v>
       </c>
-      <c r="W85" s="60">
-        <v>0</v>
-      </c>
-      <c r="X85" s="60">
-        <v>0</v>
-      </c>
-      <c r="Y85" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A86" s="53"/>
       <c r="B86" s="58" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C86" s="59">
-        <v>0.23963100000000001</v>
+        <v>0.22065199999999999</v>
       </c>
       <c r="D86" s="60">
-        <v>0.16142699999999999</v>
+        <v>0.141152</v>
       </c>
       <c r="E86" s="60">
-        <v>0.27512700000000001</v>
+        <v>0.25105</v>
       </c>
       <c r="F86" s="61">
-        <v>7.7010999999999996E-2</v>
+        <v>7.1724999999999997E-2</v>
       </c>
       <c r="G86" s="59">
         <v>4124.41</v>
@@ -7996,35 +7232,26 @@
       <c r="U86" s="60">
         <v>1200.0963449999999</v>
       </c>
-      <c r="V86" s="60">
+      <c r="V86" s="61">
         <v>5.4372410000000002</v>
       </c>
-      <c r="W86" s="60">
-        <v>18.844268</v>
-      </c>
-      <c r="X86" s="60">
-        <v>20.3521</v>
-      </c>
-      <c r="Y86" s="61">
-        <v>4.9980359999999999</v>
-      </c>
-    </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A87" s="53"/>
       <c r="B87" s="58" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C87" s="59">
-        <v>0.20046</v>
+        <v>0.18563099999999999</v>
       </c>
       <c r="D87" s="60">
-        <v>8.4522E-2</v>
+        <v>7.8849000000000002E-2</v>
       </c>
       <c r="E87" s="60">
-        <v>0.132936</v>
+        <v>0.123821</v>
       </c>
       <c r="F87" s="61">
-        <v>1.4192E-2</v>
+        <v>1.3099E-2</v>
       </c>
       <c r="G87" s="59">
         <v>12180.97</v>
@@ -8066,40 +7293,31 @@
         <v>809.59418000000005</v>
       </c>
       <c r="T87" s="60" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U87" s="60">
         <v>840.739195</v>
       </c>
-      <c r="V87" s="60">
+      <c r="V87" s="61">
         <v>2.8265899999999999</v>
       </c>
-      <c r="W87" s="60">
-        <v>18.180157999999999</v>
-      </c>
-      <c r="X87" s="60">
-        <v>19.585283</v>
-      </c>
-      <c r="Y87" s="61">
-        <v>3.831496</v>
-      </c>
-    </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A88" s="53"/>
       <c r="B88" s="58" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C88" s="59">
-        <v>0.2631</v>
+        <v>0.25035499999999999</v>
       </c>
       <c r="D88" s="60">
-        <v>0.141704</v>
+        <v>0.13184499999999999</v>
       </c>
       <c r="E88" s="60">
-        <v>9.0176000000000006E-2</v>
+        <v>8.9259000000000005E-2</v>
       </c>
       <c r="F88" s="61">
-        <v>0.69244600000000001</v>
+        <v>0.68118299999999998</v>
       </c>
       <c r="G88" s="59">
         <v>1153.3699999999999</v>
@@ -8129,7 +7347,7 @@
         <v>17.498781999999999</v>
       </c>
       <c r="P88" s="60" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q88" s="60">
         <v>612.62311699999998</v>
@@ -8146,35 +7364,26 @@
       <c r="U88" s="60">
         <v>71.845623000000003</v>
       </c>
-      <c r="V88" s="60">
+      <c r="V88" s="61">
         <v>0.68375699999999995</v>
       </c>
-      <c r="W88" s="60">
-        <v>12.82245</v>
-      </c>
-      <c r="X88" s="60">
-        <v>15.651</v>
-      </c>
-      <c r="Y88" s="61">
-        <v>4.0576670000000004</v>
-      </c>
-    </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A89" s="53"/>
       <c r="B89" s="58" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C89" s="59">
-        <v>0.17436499999999999</v>
+        <v>0.168545</v>
       </c>
       <c r="D89" s="60">
-        <v>1.7680999999999999E-2</v>
+        <v>1.7089E-2</v>
       </c>
       <c r="E89" s="60">
-        <v>5.8851000000000001E-2</v>
+        <v>5.6236000000000001E-2</v>
       </c>
       <c r="F89" s="61">
-        <v>1.0777E-2</v>
+        <v>1.0519000000000001E-2</v>
       </c>
       <c r="G89" s="59">
         <v>51966.23</v>
@@ -8221,41 +7430,32 @@
       <c r="U89" s="60">
         <v>948.23097099999995</v>
       </c>
-      <c r="V89" s="60">
+      <c r="V89" s="61">
         <v>7.1331769999999999</v>
       </c>
-      <c r="W89" s="60">
-        <v>13.694507</v>
-      </c>
-      <c r="X89" s="60">
-        <v>15.196698</v>
-      </c>
-      <c r="Y89" s="61">
-        <v>4.5941489999999998</v>
-      </c>
-    </row>
-    <row r="90" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="53"/>
       <c r="B90" s="62" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C90" s="63">
-        <v>8.6298E-2</v>
+        <v>8.1503000000000006E-2</v>
       </c>
       <c r="D90" s="64" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E90" s="64">
-        <v>3.8441000000000003E-2</v>
+        <v>3.5504000000000001E-2</v>
       </c>
       <c r="F90" s="65">
-        <v>5.8258999999999998E-2</v>
+        <v>5.5217000000000002E-2</v>
       </c>
       <c r="G90" s="63">
         <v>4493.6099999999997</v>
       </c>
       <c r="H90" s="64" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I90" s="64">
         <v>1595.64</v>
@@ -8279,7 +7479,7 @@
         <v>16.738555000000002</v>
       </c>
       <c r="P90" s="64" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q90" s="64">
         <v>19.966761999999999</v>
@@ -8288,43 +7488,34 @@
         <v>17.008927</v>
       </c>
       <c r="S90" s="64" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T90" s="64" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U90" s="64">
         <v>2.1160969999999999</v>
       </c>
-      <c r="V90" s="64">
+      <c r="V90" s="65">
         <v>1.85E-4</v>
       </c>
-      <c r="W90" s="64">
-        <v>21.213100000000001</v>
-      </c>
-      <c r="X90" s="64">
-        <v>24.452549999999999</v>
-      </c>
-      <c r="Y90" s="65">
-        <v>10.354150000000001</v>
-      </c>
-    </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A91" s="53"/>
       <c r="B91" s="69" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C91" s="70">
-        <v>0.19070799999999999</v>
+        <v>0.18485199999999999</v>
       </c>
       <c r="D91" s="71">
-        <v>0.50504199999999999</v>
+        <v>0.48538700000000001</v>
       </c>
       <c r="E91" s="71">
-        <v>0.99785000000000001</v>
+        <v>0.95119399999999998</v>
       </c>
       <c r="F91" s="72">
-        <v>0.21766199999999999</v>
+        <v>0.21553700000000001</v>
       </c>
       <c r="G91" s="70">
         <v>1438.5</v>
@@ -8366,40 +7557,31 @@
         <v>75.450025999999994</v>
       </c>
       <c r="T91" s="71" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U91" s="71">
         <v>1235.0524339999999</v>
       </c>
-      <c r="V91" s="71">
+      <c r="V91" s="72">
         <v>7.3989710000000004</v>
       </c>
-      <c r="W91" s="71">
-        <v>22.312013</v>
-      </c>
-      <c r="X91" s="71">
-        <v>23.678784</v>
-      </c>
-      <c r="Y91" s="72">
-        <v>4.5364899999999997</v>
-      </c>
-    </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A92" s="53"/>
       <c r="B92" s="58" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C92" s="59">
-        <v>0.54950299999999996</v>
+        <v>0.52564900000000003</v>
       </c>
       <c r="D92" s="60">
-        <v>0.18170600000000001</v>
+        <v>0.17755399999999999</v>
       </c>
       <c r="E92" s="60">
-        <v>0.346918</v>
+        <v>0.33860200000000001</v>
       </c>
       <c r="F92" s="61">
-        <v>1.5134999999999999E-2</v>
+        <v>1.5132E-2</v>
       </c>
       <c r="G92" s="59">
         <v>3229.65</v>
@@ -8441,40 +7623,31 @@
         <v>616.74758599999996</v>
       </c>
       <c r="T92" s="60" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U92" s="60">
         <v>362.43225799999999</v>
       </c>
-      <c r="V92" s="60">
+      <c r="V92" s="61">
         <v>1.740137</v>
       </c>
-      <c r="W92" s="60">
-        <v>12.38397</v>
-      </c>
-      <c r="X92" s="60">
-        <v>13.20172</v>
-      </c>
-      <c r="Y92" s="61">
-        <v>0.15825</v>
-      </c>
-    </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A93" s="53"/>
       <c r="B93" s="58" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C93" s="59">
-        <v>0.426649</v>
+        <v>0.38357200000000002</v>
       </c>
       <c r="D93" s="60">
-        <v>2.1927180000000002</v>
+        <v>2.0174910000000001</v>
       </c>
       <c r="E93" s="60">
-        <v>5.8035189999999997</v>
+        <v>5.509347</v>
       </c>
       <c r="F93" s="61" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G93" s="59">
         <v>83.17</v>
@@ -8486,13 +7659,13 @@
         <v>150.18</v>
       </c>
       <c r="J93" s="61" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K93" s="59">
         <v>95.085526000000002</v>
       </c>
       <c r="L93" s="60" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M93" s="60">
         <v>49.771566</v>
@@ -8504,7 +7677,7 @@
         <v>14.237575</v>
       </c>
       <c r="P93" s="60" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q93" s="60">
         <v>63.109071999999998</v>
@@ -8513,43 +7686,34 @@
         <v>24.146374999999999</v>
       </c>
       <c r="S93" s="60" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T93" s="60" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U93" s="60">
         <v>25.732406999999998</v>
       </c>
-      <c r="V93" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="W93" s="60">
-        <v>15.259740000000001</v>
-      </c>
-      <c r="X93" s="60">
-        <v>17.491140000000001</v>
-      </c>
-      <c r="Y93" s="61">
-        <v>0.36227999999999999</v>
-      </c>
-    </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V93" s="61" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A94" s="53"/>
       <c r="B94" s="58" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C94" s="59">
-        <v>0.710754</v>
+        <v>0.67976400000000003</v>
       </c>
       <c r="D94" s="60">
-        <v>0.89477600000000002</v>
+        <v>0.82130599999999998</v>
       </c>
       <c r="E94" s="60">
-        <v>3.4497409999999999</v>
+        <v>3.2415639999999999</v>
       </c>
       <c r="F94" s="61" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G94" s="59">
         <v>1288.74</v>
@@ -8561,7 +7725,7 @@
         <v>2494.5</v>
       </c>
       <c r="J94" s="61" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K94" s="59">
         <v>138.06069299999999</v>
@@ -8591,40 +7755,31 @@
         <v>3.707414</v>
       </c>
       <c r="T94" s="60" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U94" s="60">
         <v>32.584266</v>
       </c>
-      <c r="V94" s="60">
+      <c r="V94" s="61">
         <v>1.508829</v>
       </c>
-      <c r="W94" s="60">
-        <v>14.677867000000001</v>
-      </c>
-      <c r="X94" s="60">
-        <v>15.691267</v>
-      </c>
-      <c r="Y94" s="61">
-        <v>1.3633109999999999</v>
-      </c>
-    </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A95" s="53"/>
       <c r="B95" s="58" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C95" s="59">
-        <v>0.20403099999999999</v>
+        <v>0.19991999999999999</v>
       </c>
       <c r="D95" s="60">
-        <v>0.41498400000000002</v>
+        <v>0.42516399999999999</v>
       </c>
       <c r="E95" s="60">
-        <v>0.95396099999999995</v>
+        <v>0.87121300000000002</v>
       </c>
       <c r="F95" s="61">
-        <v>0.44762200000000002</v>
+        <v>0.44787399999999999</v>
       </c>
       <c r="G95" s="59">
         <v>796.46</v>
@@ -8666,40 +7821,31 @@
         <v>9.5516140000000007</v>
       </c>
       <c r="T95" s="60" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U95" s="60">
         <v>317.59335099999998</v>
       </c>
-      <c r="V95" s="60">
+      <c r="V95" s="61">
         <v>1.3870480000000001</v>
       </c>
-      <c r="W95" s="60">
-        <v>23.985073</v>
-      </c>
-      <c r="X95" s="60">
-        <v>24.890720000000002</v>
-      </c>
-      <c r="Y95" s="61">
-        <v>4.487133</v>
-      </c>
-    </row>
-    <row r="96" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="53"/>
       <c r="B96" s="62" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C96" s="63">
-        <v>0.89342699999999997</v>
+        <v>0.82704500000000003</v>
       </c>
       <c r="D96" s="64">
-        <v>0.16234499999999999</v>
+        <v>0.15745200000000001</v>
       </c>
       <c r="E96" s="64">
-        <v>0.19129299999999999</v>
+        <v>0.180619</v>
       </c>
       <c r="F96" s="65">
-        <v>0.249274</v>
+        <v>0.226129</v>
       </c>
       <c r="G96" s="63">
         <v>4400.43</v>
@@ -8746,35 +7892,26 @@
       <c r="U96" s="64">
         <v>381.291876</v>
       </c>
-      <c r="V96" s="64">
+      <c r="V96" s="65">
         <v>3.6343930000000002</v>
       </c>
-      <c r="W96" s="64">
-        <v>16.909943999999999</v>
-      </c>
-      <c r="X96" s="64">
-        <v>18.642225</v>
-      </c>
-      <c r="Y96" s="65">
-        <v>4.3539060000000003</v>
-      </c>
-    </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A97" s="53"/>
       <c r="B97" s="69" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C97" s="70">
-        <v>0.11948400000000001</v>
+        <v>0.110967</v>
       </c>
       <c r="D97" s="71">
-        <v>0.27976600000000001</v>
+        <v>0.23428399999999999</v>
       </c>
       <c r="E97" s="71">
-        <v>0.365456</v>
+        <v>0.30349900000000002</v>
       </c>
       <c r="F97" s="72">
-        <v>0.37426500000000001</v>
+        <v>0.35256599999999999</v>
       </c>
       <c r="G97" s="70">
         <v>1741.09</v>
@@ -8816,40 +7953,31 @@
         <v>16.011393999999999</v>
       </c>
       <c r="T97" s="71" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U97" s="71">
         <v>1539.2730120000001</v>
       </c>
-      <c r="V97" s="71">
+      <c r="V97" s="72">
         <v>8.6534010000000006</v>
       </c>
-      <c r="W97" s="71">
-        <v>21.675122000000002</v>
-      </c>
-      <c r="X97" s="71">
-        <v>22.851749999999999</v>
-      </c>
-      <c r="Y97" s="72">
-        <v>5.0124719999999998</v>
-      </c>
-    </row>
-    <row r="98" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="53"/>
       <c r="B98" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C98" s="63">
-        <v>0.19189500000000001</v>
+        <v>0.177091</v>
       </c>
       <c r="D98" s="64">
-        <v>0.147593</v>
+        <v>0.13936200000000001</v>
       </c>
       <c r="E98" s="64">
-        <v>0.153721</v>
+        <v>0.145314</v>
       </c>
       <c r="F98" s="65">
-        <v>1.5134999999999999E-2</v>
+        <v>1.5132E-2</v>
       </c>
       <c r="G98" s="63">
         <v>3315.51</v>
@@ -8896,436 +8024,382 @@
       <c r="U98" s="64">
         <v>415.84229299999998</v>
       </c>
-      <c r="V98" s="64">
+      <c r="V98" s="65">
         <v>3.4034260000000001</v>
       </c>
-      <c r="W98" s="64">
-        <v>10.467826000000001</v>
-      </c>
-      <c r="X98" s="64">
-        <v>10.053174</v>
-      </c>
-      <c r="Y98" s="65">
-        <v>0.92833699999999997</v>
-      </c>
-    </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A99" s="74"/>
       <c r="B99" s="75"/>
-      <c r="C99" s="67"/>
-      <c r="D99" s="67"/>
-      <c r="E99" s="67"/>
-      <c r="F99" s="67"/>
-      <c r="G99" s="67"/>
-      <c r="H99" s="67"/>
-      <c r="I99" s="67"/>
-      <c r="J99" s="67"/>
-      <c r="K99" s="67"/>
-      <c r="L99" s="67"/>
-      <c r="M99" s="67"/>
-      <c r="N99" s="67"/>
-      <c r="O99" s="67"/>
-      <c r="P99" s="67"/>
-      <c r="Q99" s="67"/>
-      <c r="R99" s="67"/>
-      <c r="S99" s="67"/>
-      <c r="T99" s="67"/>
-      <c r="U99" s="67"/>
-      <c r="V99" s="67"/>
-      <c r="W99" s="67"/>
-      <c r="X99" s="67"/>
-      <c r="Y99" s="67"/>
-    </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C99" s="76"/>
+      <c r="D99" s="76"/>
+      <c r="E99" s="76"/>
+      <c r="F99" s="76"/>
+      <c r="G99" s="76"/>
+      <c r="H99" s="76"/>
+      <c r="I99" s="76"/>
+      <c r="J99" s="76"/>
+      <c r="K99" s="76"/>
+      <c r="L99" s="76"/>
+      <c r="M99" s="76"/>
+      <c r="N99" s="76"/>
+      <c r="O99" s="76"/>
+      <c r="P99" s="76"/>
+      <c r="Q99" s="76"/>
+      <c r="R99" s="76"/>
+      <c r="S99" s="76"/>
+      <c r="T99" s="76"/>
+      <c r="U99" s="76"/>
+      <c r="V99" s="76"/>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C100" s="77"/>
+      <c r="D100" s="77"/>
+      <c r="E100" s="77"/>
+      <c r="F100" s="77"/>
+      <c r="G100" s="77"/>
+      <c r="H100" s="77"/>
+      <c r="I100" s="77"/>
+      <c r="J100" s="77"/>
+      <c r="K100" s="77"/>
+      <c r="L100" s="77"/>
+      <c r="M100" s="77"/>
+      <c r="N100" s="77"/>
+      <c r="O100" s="77"/>
+      <c r="P100" s="77"/>
+      <c r="Q100" s="77"/>
+      <c r="R100" s="77"/>
+      <c r="S100" s="77"/>
+      <c r="T100" s="77"/>
+      <c r="U100" s="77"/>
+      <c r="V100" s="77"/>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C101" s="77"/>
+      <c r="D101" s="77"/>
+      <c r="E101" s="77"/>
+      <c r="F101" s="77"/>
+      <c r="G101" s="77"/>
+      <c r="H101" s="77"/>
+      <c r="I101" s="77"/>
+      <c r="J101" s="77"/>
+      <c r="K101" s="77"/>
+      <c r="L101" s="77"/>
+      <c r="M101" s="77"/>
+      <c r="N101" s="77"/>
+      <c r="O101" s="77"/>
+      <c r="P101" s="77"/>
+      <c r="Q101" s="77"/>
+      <c r="R101" s="77"/>
+      <c r="S101" s="77"/>
+      <c r="T101" s="77"/>
+      <c r="U101" s="77"/>
+      <c r="V101" s="77"/>
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C102" s="77"/>
+      <c r="D102" s="77"/>
+      <c r="E102" s="77"/>
+      <c r="F102" s="77"/>
+      <c r="G102" s="77"/>
+      <c r="H102" s="77"/>
+      <c r="I102" s="77"/>
+      <c r="J102" s="77"/>
+      <c r="K102" s="77"/>
+      <c r="L102" s="77"/>
+      <c r="M102" s="77"/>
+      <c r="N102" s="77"/>
+      <c r="O102" s="77"/>
+      <c r="P102" s="77"/>
+      <c r="Q102" s="77"/>
+      <c r="R102" s="77"/>
+      <c r="S102" s="77"/>
+      <c r="T102" s="77"/>
+      <c r="U102" s="77"/>
+      <c r="V102" s="77"/>
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C100" s="76"/>
-      <c r="D100" s="76"/>
-      <c r="E100" s="76"/>
-      <c r="F100" s="76"/>
-      <c r="G100" s="76"/>
-      <c r="H100" s="76"/>
-      <c r="I100" s="76"/>
-      <c r="J100" s="76"/>
-      <c r="K100" s="76"/>
-      <c r="L100" s="76"/>
-      <c r="M100" s="76"/>
-      <c r="N100" s="76"/>
-      <c r="O100" s="76"/>
-      <c r="P100" s="76"/>
-      <c r="Q100" s="76"/>
-      <c r="R100" s="76"/>
-      <c r="S100" s="76"/>
-      <c r="T100" s="76"/>
-      <c r="U100" s="76"/>
-      <c r="V100" s="76"/>
-      <c r="W100" s="76"/>
-      <c r="X100" s="76"/>
-      <c r="Y100" s="76"/>
-    </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
+      <c r="C103" s="77"/>
+      <c r="D103" s="77"/>
+      <c r="E103" s="77"/>
+      <c r="F103" s="77"/>
+      <c r="G103" s="77"/>
+      <c r="H103" s="77"/>
+      <c r="I103" s="77"/>
+      <c r="J103" s="77"/>
+      <c r="K103" s="77"/>
+      <c r="L103" s="77"/>
+      <c r="M103" s="77"/>
+      <c r="N103" s="77"/>
+      <c r="O103" s="77"/>
+      <c r="P103" s="77"/>
+      <c r="Q103" s="77"/>
+      <c r="R103" s="77"/>
+      <c r="S103" s="77"/>
+      <c r="T103" s="77"/>
+      <c r="U103" s="77"/>
+      <c r="V103" s="77"/>
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C101" s="76"/>
-      <c r="D101" s="76"/>
-      <c r="E101" s="76"/>
-      <c r="F101" s="76"/>
-      <c r="G101" s="76"/>
-      <c r="H101" s="76"/>
-      <c r="I101" s="76"/>
-      <c r="J101" s="76"/>
-      <c r="K101" s="76"/>
-      <c r="L101" s="76"/>
-      <c r="M101" s="76"/>
-      <c r="N101" s="76"/>
-      <c r="O101" s="76"/>
-      <c r="P101" s="76"/>
-      <c r="Q101" s="76"/>
-      <c r="R101" s="76"/>
-      <c r="S101" s="76"/>
-      <c r="T101" s="76"/>
-      <c r="U101" s="76"/>
-      <c r="V101" s="76"/>
-      <c r="W101" s="76"/>
-      <c r="X101" s="76"/>
-      <c r="Y101" s="76"/>
-    </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
+      <c r="C104" s="77"/>
+      <c r="D104" s="77"/>
+      <c r="E104" s="77"/>
+      <c r="F104" s="77"/>
+      <c r="G104" s="77"/>
+      <c r="H104" s="77"/>
+      <c r="I104" s="77"/>
+      <c r="J104" s="77"/>
+      <c r="K104" s="77"/>
+      <c r="L104" s="77"/>
+      <c r="M104" s="77"/>
+      <c r="N104" s="77"/>
+      <c r="O104" s="77"/>
+      <c r="P104" s="77"/>
+      <c r="Q104" s="77"/>
+      <c r="R104" s="77"/>
+      <c r="S104" s="77"/>
+      <c r="T104" s="77"/>
+      <c r="U104" s="77"/>
+      <c r="V104" s="77"/>
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="C105" s="77"/>
+      <c r="D105" s="77"/>
+      <c r="E105" s="77"/>
+      <c r="F105" s="77"/>
+      <c r="G105" s="77"/>
+      <c r="H105" s="77"/>
+      <c r="I105" s="77"/>
+      <c r="J105" s="77"/>
+      <c r="K105" s="77"/>
+      <c r="L105" s="77"/>
+      <c r="M105" s="77"/>
+      <c r="N105" s="77"/>
+      <c r="O105" s="77"/>
+      <c r="P105" s="77"/>
+      <c r="Q105" s="77"/>
+      <c r="R105" s="77"/>
+      <c r="S105" s="77"/>
+      <c r="T105" s="77"/>
+      <c r="U105" s="77"/>
+      <c r="V105" s="77"/>
+    </row>
+    <row r="106" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B106" s="78"/>
+      <c r="C106" s="77"/>
+      <c r="D106" s="77"/>
+      <c r="E106" s="77"/>
+      <c r="F106" s="77"/>
+      <c r="G106" s="77"/>
+      <c r="H106" s="77"/>
+      <c r="I106" s="77"/>
+      <c r="J106" s="77"/>
+      <c r="K106" s="77"/>
+      <c r="L106" s="77"/>
+      <c r="M106" s="77"/>
+      <c r="N106" s="77"/>
+      <c r="O106" s="77"/>
+      <c r="P106" s="77"/>
+      <c r="Q106" s="77"/>
+      <c r="R106" s="77"/>
+      <c r="S106" s="77"/>
+      <c r="T106" s="77"/>
+      <c r="U106" s="77"/>
+      <c r="V106" s="77"/>
+    </row>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B107" s="79" t="s">
         <v>179</v>
       </c>
-      <c r="C102" s="76"/>
-      <c r="D102" s="76"/>
-      <c r="E102" s="76"/>
-      <c r="F102" s="76"/>
-      <c r="G102" s="76"/>
-      <c r="H102" s="76"/>
-      <c r="I102" s="76"/>
-      <c r="J102" s="76"/>
-      <c r="K102" s="76"/>
-      <c r="L102" s="76"/>
-      <c r="M102" s="76"/>
-      <c r="N102" s="76"/>
-      <c r="O102" s="76"/>
-      <c r="P102" s="76"/>
-      <c r="Q102" s="76"/>
-      <c r="R102" s="76"/>
-      <c r="S102" s="76"/>
-      <c r="T102" s="76"/>
-      <c r="U102" s="76"/>
-      <c r="V102" s="76"/>
-      <c r="W102" s="76"/>
-      <c r="X102" s="76"/>
-      <c r="Y102" s="76"/>
-    </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
+      <c r="C107" s="77"/>
+      <c r="D107" s="77"/>
+      <c r="E107" s="77"/>
+      <c r="F107" s="77"/>
+      <c r="G107" s="77"/>
+      <c r="H107" s="77"/>
+      <c r="I107" s="77"/>
+      <c r="J107" s="77"/>
+      <c r="K107" s="77"/>
+      <c r="L107" s="77"/>
+      <c r="M107" s="77"/>
+      <c r="N107" s="77"/>
+      <c r="O107" s="77"/>
+      <c r="P107" s="77"/>
+      <c r="Q107" s="77"/>
+      <c r="R107" s="77"/>
+      <c r="S107" s="77"/>
+      <c r="T107" s="77"/>
+      <c r="U107" s="77"/>
+      <c r="V107" s="77"/>
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B108" s="2"/>
+      <c r="C108" s="77"/>
+      <c r="D108" s="77"/>
+      <c r="E108" s="77"/>
+      <c r="F108" s="77"/>
+      <c r="G108" s="77"/>
+      <c r="H108" s="77"/>
+      <c r="I108" s="77"/>
+      <c r="J108" s="77"/>
+      <c r="K108" s="77"/>
+      <c r="L108" s="77"/>
+      <c r="M108" s="77"/>
+      <c r="N108" s="77"/>
+      <c r="O108" s="77"/>
+      <c r="P108" s="77"/>
+      <c r="Q108" s="77"/>
+      <c r="R108" s="77"/>
+      <c r="S108" s="77"/>
+      <c r="T108" s="77"/>
+      <c r="U108" s="77"/>
+      <c r="V108" s="77"/>
+    </row>
+    <row r="109" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B109" s="82" t="s">
+        <v>181</v>
+      </c>
+      <c r="C109" s="77"/>
+      <c r="D109" s="77"/>
+      <c r="E109" s="77"/>
+      <c r="F109" s="77"/>
+      <c r="G109" s="77"/>
+      <c r="H109" s="77"/>
+      <c r="I109" s="77"/>
+      <c r="J109" s="77"/>
+      <c r="K109" s="77"/>
+      <c r="L109" s="77"/>
+      <c r="M109" s="77"/>
+      <c r="N109" s="77"/>
+      <c r="O109" s="77"/>
+      <c r="P109" s="77"/>
+      <c r="Q109" s="77"/>
+      <c r="R109" s="77"/>
+      <c r="S109" s="77"/>
+      <c r="T109" s="77"/>
+      <c r="U109" s="77"/>
+      <c r="V109" s="77"/>
+    </row>
+    <row r="110" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B110" s="82" t="s">
+        <v>182</v>
+      </c>
+      <c r="C110" s="77"/>
+      <c r="D110" s="77"/>
+      <c r="E110" s="77"/>
+      <c r="F110" s="77"/>
+      <c r="G110" s="77"/>
+      <c r="H110" s="77"/>
+      <c r="I110" s="77"/>
+      <c r="J110" s="77"/>
+      <c r="K110" s="77"/>
+      <c r="L110" s="77"/>
+      <c r="M110" s="77"/>
+      <c r="N110" s="77"/>
+      <c r="O110" s="77"/>
+      <c r="P110" s="77"/>
+      <c r="Q110" s="77"/>
+      <c r="R110" s="77"/>
+      <c r="S110" s="77"/>
+      <c r="T110" s="77"/>
+      <c r="U110" s="77"/>
+      <c r="V110" s="77"/>
+    </row>
+    <row r="111" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B111" s="82" t="s">
+        <v>183</v>
+      </c>
+      <c r="C111" s="77"/>
+      <c r="D111" s="77"/>
+      <c r="E111" s="77"/>
+      <c r="F111" s="77"/>
+      <c r="G111" s="77"/>
+      <c r="H111" s="77"/>
+      <c r="I111" s="77"/>
+      <c r="J111" s="77"/>
+      <c r="K111" s="77"/>
+      <c r="L111" s="77"/>
+      <c r="M111" s="77"/>
+      <c r="N111" s="77"/>
+      <c r="O111" s="77"/>
+      <c r="P111" s="77"/>
+      <c r="Q111" s="77"/>
+      <c r="R111" s="77"/>
+      <c r="S111" s="77"/>
+      <c r="T111" s="77"/>
+      <c r="U111" s="77"/>
+      <c r="V111" s="77"/>
+    </row>
+    <row r="112" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B112" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C103" s="76"/>
-      <c r="D103" s="76"/>
-      <c r="E103" s="76"/>
-      <c r="F103" s="76"/>
-      <c r="G103" s="76"/>
-      <c r="H103" s="76"/>
-      <c r="I103" s="76"/>
-      <c r="J103" s="76"/>
-      <c r="K103" s="76"/>
-      <c r="L103" s="76"/>
-      <c r="M103" s="76"/>
-      <c r="N103" s="76"/>
-      <c r="O103" s="76"/>
-      <c r="P103" s="76"/>
-      <c r="Q103" s="76"/>
-      <c r="R103" s="76"/>
-      <c r="S103" s="76"/>
-      <c r="T103" s="76"/>
-      <c r="U103" s="76"/>
-      <c r="V103" s="76"/>
-      <c r="W103" s="76"/>
-      <c r="X103" s="76"/>
-      <c r="Y103" s="76"/>
-    </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C104" s="76"/>
-      <c r="D104" s="76"/>
-      <c r="E104" s="76"/>
-      <c r="F104" s="76"/>
-      <c r="G104" s="76"/>
-      <c r="H104" s="76"/>
-      <c r="I104" s="76"/>
-      <c r="J104" s="76"/>
-      <c r="K104" s="76"/>
-      <c r="L104" s="76"/>
-      <c r="M104" s="76"/>
-      <c r="N104" s="76"/>
-      <c r="O104" s="76"/>
-      <c r="P104" s="76"/>
-      <c r="Q104" s="76"/>
-      <c r="R104" s="76"/>
-      <c r="S104" s="76"/>
-      <c r="T104" s="76"/>
-      <c r="U104" s="76"/>
-      <c r="V104" s="76"/>
-      <c r="W104" s="76"/>
-      <c r="X104" s="76"/>
-      <c r="Y104" s="76"/>
-    </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C105" s="76"/>
-      <c r="D105" s="76"/>
-      <c r="E105" s="76"/>
-      <c r="F105" s="76"/>
-      <c r="G105" s="76"/>
-      <c r="H105" s="76"/>
-      <c r="I105" s="76"/>
-      <c r="J105" s="76"/>
-      <c r="K105" s="76"/>
-      <c r="L105" s="76"/>
-      <c r="M105" s="76"/>
-      <c r="N105" s="76"/>
-      <c r="O105" s="76"/>
-      <c r="P105" s="76"/>
-      <c r="Q105" s="76"/>
-      <c r="R105" s="76"/>
-      <c r="S105" s="76"/>
-      <c r="T105" s="76"/>
-      <c r="U105" s="76"/>
-      <c r="V105" s="76"/>
-      <c r="W105" s="76"/>
-      <c r="X105" s="76"/>
-      <c r="Y105" s="76"/>
-    </row>
-    <row r="106" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B106" s="77"/>
-      <c r="C106" s="76"/>
-      <c r="D106" s="76"/>
-      <c r="E106" s="76"/>
-      <c r="F106" s="76"/>
-      <c r="G106" s="76"/>
-      <c r="H106" s="76"/>
-      <c r="I106" s="76"/>
-      <c r="J106" s="76"/>
-      <c r="K106" s="76"/>
-      <c r="L106" s="76"/>
-      <c r="M106" s="76"/>
-      <c r="N106" s="76"/>
-      <c r="O106" s="76"/>
-      <c r="P106" s="76"/>
-      <c r="Q106" s="76"/>
-      <c r="R106" s="76"/>
-      <c r="S106" s="76"/>
-      <c r="T106" s="76"/>
-      <c r="U106" s="76"/>
-      <c r="V106" s="76"/>
-      <c r="W106" s="76"/>
-      <c r="X106" s="76"/>
-      <c r="Y106" s="76"/>
-    </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B107" s="78" t="s">
-        <v>182</v>
-      </c>
-      <c r="C107" s="76"/>
-      <c r="D107" s="76"/>
-      <c r="E107" s="76"/>
-      <c r="F107" s="76"/>
-      <c r="G107" s="76"/>
-      <c r="H107" s="76"/>
-      <c r="I107" s="76"/>
-      <c r="J107" s="76"/>
-      <c r="K107" s="76"/>
-      <c r="L107" s="76"/>
-      <c r="M107" s="76"/>
-      <c r="N107" s="76"/>
-      <c r="O107" s="76"/>
-      <c r="P107" s="76"/>
-      <c r="Q107" s="76"/>
-      <c r="R107" s="76"/>
-      <c r="S107" s="76"/>
-      <c r="T107" s="76"/>
-      <c r="U107" s="76"/>
-      <c r="V107" s="76"/>
-      <c r="W107" s="76"/>
-      <c r="X107" s="76"/>
-      <c r="Y107" s="76"/>
-    </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B108" s="2"/>
-      <c r="C108" s="76"/>
-      <c r="D108" s="76"/>
-      <c r="E108" s="76"/>
-      <c r="F108" s="76"/>
-      <c r="G108" s="76"/>
-      <c r="H108" s="76"/>
-      <c r="I108" s="76"/>
-      <c r="J108" s="76"/>
-      <c r="K108" s="76"/>
-      <c r="L108" s="76"/>
-      <c r="M108" s="76"/>
-      <c r="N108" s="76"/>
-      <c r="O108" s="76"/>
-      <c r="P108" s="76"/>
-      <c r="Q108" s="76"/>
-      <c r="R108" s="76"/>
-      <c r="S108" s="76"/>
-      <c r="T108" s="76"/>
-      <c r="U108" s="76"/>
-      <c r="V108" s="76"/>
-      <c r="W108" s="76"/>
-      <c r="X108" s="76"/>
-      <c r="Y108" s="76"/>
-    </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B109" s="81" t="s">
-        <v>184</v>
-      </c>
-      <c r="C109" s="76"/>
-      <c r="D109" s="76"/>
-      <c r="E109" s="76"/>
-      <c r="F109" s="76"/>
-      <c r="G109" s="76"/>
-      <c r="H109" s="76"/>
-      <c r="I109" s="76"/>
-      <c r="J109" s="76"/>
-      <c r="K109" s="76"/>
-      <c r="L109" s="76"/>
-      <c r="M109" s="76"/>
-      <c r="N109" s="76"/>
-      <c r="O109" s="76"/>
-      <c r="P109" s="76"/>
-      <c r="Q109" s="76"/>
-      <c r="R109" s="76"/>
-      <c r="S109" s="76"/>
-      <c r="T109" s="76"/>
-      <c r="U109" s="76"/>
-      <c r="V109" s="76"/>
-      <c r="W109" s="76"/>
-      <c r="X109" s="76"/>
-      <c r="Y109" s="76"/>
-    </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B110" s="81" t="s">
-        <v>185</v>
-      </c>
-      <c r="C110" s="76"/>
-      <c r="D110" s="76"/>
-      <c r="E110" s="76"/>
-      <c r="F110" s="76"/>
-      <c r="G110" s="76"/>
-      <c r="H110" s="76"/>
-      <c r="I110" s="76"/>
-      <c r="J110" s="76"/>
-      <c r="K110" s="76"/>
-      <c r="L110" s="76"/>
-      <c r="M110" s="76"/>
-      <c r="N110" s="76"/>
-      <c r="O110" s="76"/>
-      <c r="P110" s="76"/>
-      <c r="Q110" s="76"/>
-      <c r="R110" s="76"/>
-      <c r="S110" s="76"/>
-      <c r="T110" s="76"/>
-      <c r="U110" s="76"/>
-      <c r="V110" s="76"/>
-      <c r="W110" s="76"/>
-      <c r="X110" s="76"/>
-      <c r="Y110" s="76"/>
-    </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B111" s="81" t="s">
-        <v>186</v>
-      </c>
-      <c r="C111" s="76"/>
-      <c r="D111" s="76"/>
-      <c r="E111" s="76"/>
-      <c r="F111" s="76"/>
-      <c r="G111" s="76"/>
-      <c r="H111" s="76"/>
-      <c r="I111" s="76"/>
-      <c r="J111" s="76"/>
-      <c r="K111" s="76"/>
-      <c r="L111" s="76"/>
-      <c r="M111" s="76"/>
-      <c r="N111" s="76"/>
-      <c r="O111" s="76"/>
-      <c r="P111" s="76"/>
-      <c r="Q111" s="76"/>
-      <c r="R111" s="76"/>
-      <c r="S111" s="76"/>
-      <c r="T111" s="76"/>
-      <c r="U111" s="76"/>
-      <c r="V111" s="76"/>
-      <c r="W111" s="76"/>
-      <c r="X111" s="76"/>
-      <c r="Y111" s="76"/>
-    </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C112" s="76"/>
-      <c r="D112" s="76"/>
-      <c r="E112" s="76"/>
-      <c r="F112" s="76"/>
-      <c r="G112" s="76"/>
-      <c r="H112" s="76"/>
-      <c r="I112" s="76"/>
-      <c r="J112" s="76"/>
-      <c r="K112" s="76"/>
-      <c r="L112" s="76"/>
-      <c r="M112" s="76"/>
-      <c r="N112" s="76"/>
-      <c r="O112" s="76"/>
-      <c r="P112" s="76"/>
-      <c r="Q112" s="76"/>
-      <c r="R112" s="76"/>
-      <c r="S112" s="76"/>
-      <c r="T112" s="76"/>
-      <c r="U112" s="76"/>
-      <c r="V112" s="76"/>
-      <c r="W112" s="76"/>
-      <c r="X112" s="76"/>
-      <c r="Y112" s="76"/>
-    </row>
-    <row r="113" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B113" s="79"/>
-      <c r="C113" s="76"/>
-      <c r="D113" s="76"/>
-      <c r="E113" s="76"/>
-      <c r="F113" s="76"/>
-      <c r="G113" s="76"/>
-      <c r="H113" s="76"/>
-      <c r="I113" s="76"/>
-      <c r="J113" s="76"/>
-      <c r="K113" s="76"/>
-      <c r="L113" s="76"/>
-      <c r="M113" s="76"/>
-      <c r="N113" s="76"/>
-      <c r="O113" s="76"/>
-      <c r="P113" s="76"/>
-      <c r="Q113" s="76"/>
-      <c r="R113" s="76"/>
-      <c r="S113" s="76"/>
-      <c r="T113" s="76"/>
-      <c r="U113" s="76"/>
-      <c r="V113" s="76"/>
-      <c r="W113" s="76"/>
-      <c r="X113" s="76"/>
-      <c r="Y113" s="76"/>
+      <c r="C112" s="77"/>
+      <c r="D112" s="77"/>
+      <c r="E112" s="77"/>
+      <c r="F112" s="77"/>
+      <c r="G112" s="77"/>
+      <c r="H112" s="77"/>
+      <c r="I112" s="77"/>
+      <c r="J112" s="77"/>
+      <c r="K112" s="77"/>
+      <c r="L112" s="77"/>
+      <c r="M112" s="77"/>
+      <c r="N112" s="77"/>
+      <c r="O112" s="77"/>
+      <c r="P112" s="77"/>
+      <c r="Q112" s="77"/>
+      <c r="R112" s="77"/>
+      <c r="S112" s="77"/>
+      <c r="T112" s="77"/>
+      <c r="U112" s="77"/>
+      <c r="V112" s="77"/>
+    </row>
+    <row r="113" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B113" s="80"/>
+      <c r="C113" s="77"/>
+      <c r="D113" s="77"/>
+      <c r="E113" s="77"/>
+      <c r="F113" s="77"/>
+      <c r="G113" s="77"/>
+      <c r="H113" s="77"/>
+      <c r="I113" s="77"/>
+      <c r="J113" s="77"/>
+      <c r="K113" s="77"/>
+      <c r="L113" s="77"/>
+      <c r="M113" s="77"/>
+      <c r="N113" s="77"/>
+      <c r="O113" s="77"/>
+      <c r="P113" s="77"/>
+      <c r="Q113" s="77"/>
+      <c r="R113" s="77"/>
+      <c r="S113" s="77"/>
+      <c r="T113" s="77"/>
+      <c r="U113" s="77"/>
+      <c r="V113" s="77"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" xr:uid="{B0C11BAA-EFBD-43E1-9795-D825A5691816}"/>
-    <hyperlink ref="B110" r:id="rId2" xr:uid="{2808DA36-9A01-4B9D-9625-E15991E6FF13}"/>
-    <hyperlink ref="B107" r:id="rId3" xr:uid="{B8382EFE-45B7-4A23-B4C5-32B013198E3F}"/>
-    <hyperlink ref="B112" r:id="rId4" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{C4D5CC4F-FC32-4B7D-9F4B-E320E2FA3055}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{3182FEAA-79DD-48AA-9AA9-2A196E86E5E0}"/>
+    <hyperlink ref="B109" r:id="rId1" xr:uid="{A69653AB-A4F0-4794-899B-6820087B448C}"/>
+    <hyperlink ref="B110" r:id="rId2" xr:uid="{51155AA9-2998-4695-87E5-3964D360E9DC}"/>
+    <hyperlink ref="B107" r:id="rId3" xr:uid="{AFB2908C-9CD5-438A-9049-0B94CB92F8C7}"/>
+    <hyperlink ref="B112" r:id="rId4" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{05B81295-ABD4-4E6C-970E-9D06837267A5}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{EB440100-D832-4F8D-95E2-64229929FCF0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>

--- a/AfDD_2025_Annex_Table_Tab21.xlsx
+++ b/AfDD_2025_Annex_Table_Tab21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBE181DC-EAA4-4A54-937C-27B75ADAC717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{350054C5-A3CD-49E1-8B59-C59514C6DD07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{1B1F6350-BA7D-4DEC-A9AA-79E02ADBBA88}"/>
+    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{1478F774-020F-4E21-BDAD-D97D7FD16C77}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab21" sheetId="1" r:id="rId1"/>
@@ -566,7 +566,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Source: International Telecommunication Union - ICT Indicators Online Database (retrieved 05/09/2025), GSMA Intelligence (data updated in june 2020), Gallup World Poll (accessed 15 December 2019).</t>
@@ -575,16 +575,16 @@
     <t>CLICK HERE to visit the website where you can find the Africa's Development Dynamics report, and where you can find links to explore these data further and look up historic values for these indicators.</t>
   </si>
   <si>
+    <t>CLICK HERE to go to the list of indicators, descriptions and details for more information about the indicators presented in this table.</t>
+  </si>
+  <si>
+    <t>CLICK HERE to go the list of countries, and country groupings used for aggregating indicators and see which countries belong to each country grouping.</t>
+  </si>
+  <si>
     <t>CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000 (in a compressed file format).</t>
   </si>
   <si>
-    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
-  </si>
-  <si>
-    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators, click here.</t>
-  </si>
-  <si>
-    <t>To see the full list of sources used in the Statistical Annex, click here.</t>
+    <t>CLICK HERE to go to the full list of sources used in the Statistical Annex, click here.</t>
   </si>
 </sst>
 </file>
@@ -595,7 +595,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -727,16 +727,6 @@
       <u/>
       <sz val="12"/>
       <color rgb="FFD42C2D"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FFA54917"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -963,7 +953,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1194,7 +1184,6 @@
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
@@ -1478,8 +1467,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00A8854D-69B2-4303-99AE-824AFA54C948}">
-  <dimension ref="A1:V113"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D8471A-9F5A-46E8-904A-962586606259}">
+  <dimension ref="A1:V114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1487,7 +1476,7 @@
   <cols>
     <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="22" width="14.453125" style="81" customWidth="1"/>
+    <col min="3" max="22" width="14.453125" style="80" customWidth="1"/>
     <col min="23" max="23" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8222,10 +8211,8 @@
       <c r="U106" s="77"/>
       <c r="V106" s="77"/>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B107" s="79" t="s">
-        <v>179</v>
-      </c>
+    <row r="107" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B107" s="78"/>
       <c r="C107" s="77"/>
       <c r="D107" s="77"/>
       <c r="E107" s="77"/>
@@ -8248,7 +8235,9 @@
       <c r="V107" s="77"/>
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B108" s="2"/>
+      <c r="B108" s="81" t="s">
+        <v>179</v>
+      </c>
       <c r="C108" s="77"/>
       <c r="D108" s="77"/>
       <c r="E108" s="77"/>
@@ -8271,9 +8260,7 @@
       <c r="V108" s="77"/>
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B109" s="82" t="s">
-        <v>181</v>
-      </c>
+      <c r="B109" s="2"/>
       <c r="C109" s="77"/>
       <c r="D109" s="77"/>
       <c r="E109" s="77"/>
@@ -8296,8 +8283,8 @@
       <c r="V109" s="77"/>
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B110" s="82" t="s">
-        <v>182</v>
+      <c r="B110" s="81" t="s">
+        <v>180</v>
       </c>
       <c r="C110" s="77"/>
       <c r="D110" s="77"/>
@@ -8321,8 +8308,8 @@
       <c r="V110" s="77"/>
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B111" s="82" t="s">
-        <v>183</v>
+      <c r="B111" s="81" t="s">
+        <v>181</v>
       </c>
       <c r="C111" s="77"/>
       <c r="D111" s="77"/>
@@ -8346,8 +8333,8 @@
       <c r="V111" s="77"/>
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B112" s="2" t="s">
-        <v>180</v>
+      <c r="B112" s="81" t="s">
+        <v>183</v>
       </c>
       <c r="C112" s="77"/>
       <c r="D112" s="77"/>
@@ -8371,7 +8358,9 @@
       <c r="V112" s="77"/>
     </row>
     <row r="113" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B113" s="80"/>
+      <c r="B113" s="81" t="s">
+        <v>182</v>
+      </c>
       <c r="C113" s="77"/>
       <c r="D113" s="77"/>
       <c r="E113" s="77"/>
@@ -8393,13 +8382,36 @@
       <c r="U113" s="77"/>
       <c r="V113" s="77"/>
     </row>
+    <row r="114" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B114" s="79"/>
+      <c r="C114" s="77"/>
+      <c r="D114" s="77"/>
+      <c r="E114" s="77"/>
+      <c r="F114" s="77"/>
+      <c r="G114" s="77"/>
+      <c r="H114" s="77"/>
+      <c r="I114" s="77"/>
+      <c r="J114" s="77"/>
+      <c r="K114" s="77"/>
+      <c r="L114" s="77"/>
+      <c r="M114" s="77"/>
+      <c r="N114" s="77"/>
+      <c r="O114" s="77"/>
+      <c r="P114" s="77"/>
+      <c r="Q114" s="77"/>
+      <c r="R114" s="77"/>
+      <c r="S114" s="77"/>
+      <c r="T114" s="77"/>
+      <c r="U114" s="77"/>
+      <c r="V114" s="77"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" xr:uid="{A69653AB-A4F0-4794-899B-6820087B448C}"/>
-    <hyperlink ref="B110" r:id="rId2" xr:uid="{51155AA9-2998-4695-87E5-3964D360E9DC}"/>
-    <hyperlink ref="B107" r:id="rId3" xr:uid="{AFB2908C-9CD5-438A-9049-0B94CB92F8C7}"/>
-    <hyperlink ref="B112" r:id="rId4" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{05B81295-ABD4-4E6C-970E-9D06837267A5}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{EB440100-D832-4F8D-95E2-64229929FCF0}"/>
+    <hyperlink ref="B110" r:id="rId1" xr:uid="{461194BC-A592-4F86-8868-1E73C8DC724A}"/>
+    <hyperlink ref="B111" r:id="rId2" xr:uid="{FDC23A40-B01C-44D8-87E3-8244156A3E35}"/>
+    <hyperlink ref="B108" r:id="rId3" xr:uid="{79DCA40A-3097-48A8-9E14-4C52FA414470}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{8C3E2705-5620-43C1-B0E1-454F3AD66FCD}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{337875DA-5423-4E01-8FC7-6E5F253F56A4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
